--- a/data/pca/factorExposure/factorExposure_2011-07-01.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-07-01.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
   <si>
     <t>factor1</t>
   </si>
@@ -38,6 +38,18 @@
   </si>
   <si>
     <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
+  </si>
+  <si>
+    <t>factor11</t>
+  </si>
+  <si>
+    <t>factor12</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -704,13 +716,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I104"/>
+  <dimension ref="A1:M104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -735,39 +747,63 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B2">
-        <v>-0.02228482246270397</v>
+        <v>-0.01923421466378722</v>
       </c>
       <c r="C2">
-        <v>-0.001244122155723855</v>
+        <v>-0.0007273011100650732</v>
       </c>
       <c r="D2">
-        <v>0.05141967021290594</v>
+        <v>-0.003371684862121384</v>
       </c>
       <c r="E2">
-        <v>0.02531672616052078</v>
+        <v>-0.03960825351877522</v>
       </c>
       <c r="F2">
-        <v>-0.0442560147538409</v>
+        <v>0.002970653488152853</v>
       </c>
       <c r="G2">
-        <v>0.01596189162954069</v>
+        <v>-0.02575572133277387</v>
       </c>
       <c r="H2">
-        <v>-0.02228016310258137</v>
+        <v>-0.01707805870964926</v>
       </c>
       <c r="I2">
-        <v>0.02372315848419904</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>0.03941179857271528</v>
+      </c>
+      <c r="J2">
+        <v>0.03959253703102741</v>
+      </c>
+      <c r="K2">
+        <v>0.02074716632635056</v>
+      </c>
+      <c r="L2">
+        <v>0.05273814307935086</v>
+      </c>
+      <c r="M2">
+        <v>0.03490612607309007</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -793,39 +829,63 @@
       <c r="I3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B4">
-        <v>-0.07109579038145376</v>
+        <v>-0.1050432546516968</v>
       </c>
       <c r="C4">
-        <v>0.06145166478232669</v>
+        <v>0.07896281301235182</v>
       </c>
       <c r="D4">
-        <v>0.03494045140034033</v>
+        <v>-0.02597722134657839</v>
       </c>
       <c r="E4">
-        <v>0.04034950891248665</v>
+        <v>-0.0430065170874076</v>
       </c>
       <c r="F4">
-        <v>0.004446669146066739</v>
+        <v>0.1112215392842371</v>
       </c>
       <c r="G4">
-        <v>0.02605165512966582</v>
+        <v>0.01007066384104705</v>
       </c>
       <c r="H4">
-        <v>0.005568572781538377</v>
+        <v>0.06132729386461593</v>
       </c>
       <c r="I4">
-        <v>0.007030134066198229</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>-0.03844726894451982</v>
+      </c>
+      <c r="J4">
+        <v>0.03555822992331117</v>
+      </c>
+      <c r="K4">
+        <v>-0.06579442240165066</v>
+      </c>
+      <c r="L4">
+        <v>-0.06637426345729618</v>
+      </c>
+      <c r="M4">
+        <v>0.03072911079599192</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -851,329 +911,473 @@
       <c r="I5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B6">
-        <v>-0.1277251013244849</v>
+        <v>-0.1306222359650058</v>
       </c>
       <c r="C6">
-        <v>0.02932187711175872</v>
+        <v>0.0550697866243265</v>
       </c>
       <c r="D6">
-        <v>0.06091008275267627</v>
+        <v>-0.006328037655016758</v>
       </c>
       <c r="E6">
-        <v>0.1068705958746708</v>
+        <v>-0.02984533518086625</v>
       </c>
       <c r="F6">
-        <v>0.08461939570288668</v>
+        <v>0.05706690356351671</v>
       </c>
       <c r="G6">
-        <v>-0.04161868426602455</v>
+        <v>0.1610944706539397</v>
       </c>
       <c r="H6">
-        <v>0.2322777068272686</v>
+        <v>-0.06486246277559722</v>
       </c>
       <c r="I6">
-        <v>-0.2055800328061984</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>-0.1102141689850415</v>
+      </c>
+      <c r="J6">
+        <v>0.001217867667726516</v>
+      </c>
+      <c r="K6">
+        <v>-0.415277777512001</v>
+      </c>
+      <c r="L6">
+        <v>0.1314479335186554</v>
+      </c>
+      <c r="M6">
+        <v>-0.01331819328360332</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B7">
-        <v>-0.06765411390152981</v>
+        <v>-0.07042262255992798</v>
       </c>
       <c r="C7">
-        <v>0.05392039274384</v>
+        <v>0.07377273568709156</v>
       </c>
       <c r="D7">
-        <v>0.052412720470848</v>
+        <v>-0.008155764293392513</v>
       </c>
       <c r="E7">
-        <v>0.03972293417167665</v>
+        <v>-0.04326967614019039</v>
       </c>
       <c r="F7">
-        <v>0.03661742471997782</v>
+        <v>0.01895379391335065</v>
       </c>
       <c r="G7">
-        <v>-0.001764326808353668</v>
+        <v>-0.006379456483325268</v>
       </c>
       <c r="H7">
-        <v>-0.004239858699316749</v>
+        <v>0.05026787135748318</v>
       </c>
       <c r="I7">
-        <v>0.05035036657486356</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>-0.03377972437761714</v>
+      </c>
+      <c r="J7">
+        <v>0.003170141348463406</v>
+      </c>
+      <c r="K7">
+        <v>0.03217334188854264</v>
+      </c>
+      <c r="L7">
+        <v>-0.0956709172451001</v>
+      </c>
+      <c r="M7">
+        <v>0.001476502215504214</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B8">
-        <v>-0.02574618485738592</v>
+        <v>-0.03619471928494978</v>
       </c>
       <c r="C8">
-        <v>0.01581271460515728</v>
+        <v>0.01043955460810199</v>
       </c>
       <c r="D8">
-        <v>0.03476817637529515</v>
+        <v>-0.0205008546809767</v>
       </c>
       <c r="E8">
-        <v>0.05960819073607823</v>
+        <v>-0.04965083562180128</v>
       </c>
       <c r="F8">
-        <v>-0.04308849052870678</v>
+        <v>0.1031726886899501</v>
       </c>
       <c r="G8">
-        <v>-0.04909277007481778</v>
+        <v>0.008345604064255009</v>
       </c>
       <c r="H8">
-        <v>-0.01133262361889341</v>
+        <v>0.03656643223069032</v>
       </c>
       <c r="I8">
-        <v>0.03597451829327085</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>-0.01536285462362113</v>
+      </c>
+      <c r="J8">
+        <v>0.05745377198166484</v>
+      </c>
+      <c r="K8">
+        <v>-0.04532602578277651</v>
+      </c>
+      <c r="L8">
+        <v>-0.04736315832769521</v>
+      </c>
+      <c r="M8">
+        <v>0.01704908262679082</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B9">
-        <v>-0.07429197103603268</v>
+        <v>-0.0839447073515998</v>
       </c>
       <c r="C9">
-        <v>0.07821158716442163</v>
+        <v>0.06847458707397341</v>
       </c>
       <c r="D9">
-        <v>0.04212835892162666</v>
+        <v>-0.005802476547790926</v>
       </c>
       <c r="E9">
-        <v>0.03047602668966283</v>
+        <v>-0.0292962169620891</v>
       </c>
       <c r="F9">
-        <v>-0.0113053506842707</v>
+        <v>0.1050618018258161</v>
       </c>
       <c r="G9">
-        <v>0.02077973887108929</v>
+        <v>0.004129173471846</v>
       </c>
       <c r="H9">
-        <v>-0.003028071425715815</v>
+        <v>0.0581551519053188</v>
       </c>
       <c r="I9">
-        <v>0.0118395092878052</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>-0.04487502247643438</v>
+      </c>
+      <c r="J9">
+        <v>0.0165009317991623</v>
+      </c>
+      <c r="K9">
+        <v>-0.02972139987644108</v>
+      </c>
+      <c r="L9">
+        <v>-0.03454283060622803</v>
+      </c>
+      <c r="M9">
+        <v>0.003752337636701816</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B10">
-        <v>-0.06346667664929703</v>
+        <v>-0.1075363288735951</v>
       </c>
       <c r="C10">
-        <v>-0.1406860242989521</v>
+        <v>-0.1713221318660335</v>
       </c>
       <c r="D10">
-        <v>0.05953458337881203</v>
+        <v>-0.01175942084590914</v>
       </c>
       <c r="E10">
-        <v>0.04429612423350205</v>
+        <v>-0.05171686312482558</v>
       </c>
       <c r="F10">
-        <v>0.03845242514081793</v>
+        <v>-0.0160357365120738</v>
       </c>
       <c r="G10">
-        <v>-0.02739794451057409</v>
+        <v>0.01170892159421709</v>
       </c>
       <c r="H10">
-        <v>0.05178468381064383</v>
+        <v>0.002384970449115029</v>
       </c>
       <c r="I10">
-        <v>0.008392575937675336</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>-0.02219243301774079</v>
+      </c>
+      <c r="J10">
+        <v>-0.03955406347949921</v>
+      </c>
+      <c r="K10">
+        <v>0.0576583370404665</v>
+      </c>
+      <c r="L10">
+        <v>0.00186727743714949</v>
+      </c>
+      <c r="M10">
+        <v>-0.0606345900149184</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B11">
-        <v>-0.06577220256242514</v>
+        <v>-0.06618856715767019</v>
       </c>
       <c r="C11">
-        <v>0.08983487364698266</v>
+        <v>0.06982641551256459</v>
       </c>
       <c r="D11">
-        <v>0.036079579773102</v>
+        <v>0.02951806131408739</v>
       </c>
       <c r="E11">
-        <v>0.002715843447688589</v>
+        <v>-0.01262655412350656</v>
       </c>
       <c r="F11">
-        <v>-0.05440231454419895</v>
+        <v>0.1040433552632737</v>
       </c>
       <c r="G11">
-        <v>0.002450186691254186</v>
+        <v>-0.01857646024282078</v>
       </c>
       <c r="H11">
-        <v>-0.04735202617408693</v>
+        <v>0.03481924774970899</v>
       </c>
       <c r="I11">
-        <v>0.04197000134884928</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>-0.03421384951939171</v>
+      </c>
+      <c r="J11">
+        <v>0.02292209663593057</v>
+      </c>
+      <c r="K11">
+        <v>0.09502088139288541</v>
+      </c>
+      <c r="L11">
+        <v>0.009787104612718964</v>
+      </c>
+      <c r="M11">
+        <v>-0.07628065842619082</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B12">
-        <v>-0.06022515607934453</v>
+        <v>-0.07077564330984933</v>
       </c>
       <c r="C12">
-        <v>0.05610874208410964</v>
+        <v>0.06268854033730509</v>
       </c>
       <c r="D12">
-        <v>0.01525990358003358</v>
+        <v>0.0283402622198769</v>
       </c>
       <c r="E12">
-        <v>0.01976578950375021</v>
+        <v>-0.001967828239219455</v>
       </c>
       <c r="F12">
-        <v>0.0005100243609038309</v>
+        <v>0.1185837767475198</v>
       </c>
       <c r="G12">
-        <v>0.006778777375695938</v>
+        <v>-0.02146198651294776</v>
       </c>
       <c r="H12">
-        <v>-0.03698563265199888</v>
+        <v>0.02560953329778006</v>
       </c>
       <c r="I12">
-        <v>0.06315947079278725</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>-0.05404162017485727</v>
+      </c>
+      <c r="J12">
+        <v>0.06087322496394867</v>
+      </c>
+      <c r="K12">
+        <v>0.06777377610618394</v>
+      </c>
+      <c r="L12">
+        <v>-0.01600954279463271</v>
+      </c>
+      <c r="M12">
+        <v>-0.1109831481793685</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B13">
-        <v>-0.05543778603312167</v>
+        <v>-0.04724665581512319</v>
       </c>
       <c r="C13">
-        <v>0.020248194545583</v>
+        <v>0.03403353245289651</v>
       </c>
       <c r="D13">
-        <v>0.0007575589974732226</v>
+        <v>-0.0224602219443372</v>
       </c>
       <c r="E13">
-        <v>0.01300592913215077</v>
+        <v>-0.005416837609167427</v>
       </c>
       <c r="F13">
-        <v>-0.0331973804993549</v>
+        <v>0.0413669132301676</v>
       </c>
       <c r="G13">
-        <v>0.04118366667862883</v>
+        <v>-0.02326027634093608</v>
       </c>
       <c r="H13">
-        <v>-0.03216059180313236</v>
+        <v>0.02971811014375716</v>
       </c>
       <c r="I13">
-        <v>0.003940357696049284</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>-0.00968545866156988</v>
+      </c>
+      <c r="J13">
+        <v>0.01068175680343467</v>
+      </c>
+      <c r="K13">
+        <v>-0.01903194228933463</v>
+      </c>
+      <c r="L13">
+        <v>-0.08218905370833743</v>
+      </c>
+      <c r="M13">
+        <v>0.01204240187354975</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B14">
-        <v>-0.04157427191985337</v>
+        <v>-0.04668970703825261</v>
       </c>
       <c r="C14">
-        <v>0.02415699998036379</v>
+        <v>0.02743971008312357</v>
       </c>
       <c r="D14">
-        <v>0.01956619846275435</v>
+        <v>0.006306973975735624</v>
       </c>
       <c r="E14">
-        <v>-0.007138681665705674</v>
+        <v>-0.01767733704047038</v>
       </c>
       <c r="F14">
-        <v>0.01588635403239972</v>
+        <v>0.04694989591572651</v>
       </c>
       <c r="G14">
-        <v>0.01669147835713704</v>
+        <v>-0.0203923389053508</v>
       </c>
       <c r="H14">
-        <v>0.09669549785065226</v>
+        <v>0.06922116694382342</v>
       </c>
       <c r="I14">
-        <v>-0.0007091389142401812</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>-0.02522323170541067</v>
+      </c>
+      <c r="J14">
+        <v>-0.02309597499421735</v>
+      </c>
+      <c r="K14">
+        <v>-0.04842602587743872</v>
+      </c>
+      <c r="L14">
+        <v>-0.0530461348602724</v>
+      </c>
+      <c r="M14">
+        <v>0.04393313408725679</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B15">
-        <v>-0.03667490205872499</v>
+        <v>-0.03080260012501906</v>
       </c>
       <c r="C15">
-        <v>-0.006334625147014327</v>
+        <v>0.008586110555510132</v>
       </c>
       <c r="D15">
-        <v>-0.003550264648567824</v>
+        <v>-0.06062766433033312</v>
       </c>
       <c r="E15">
-        <v>0.02186383042267503</v>
+        <v>-0.005504891100944067</v>
       </c>
       <c r="F15">
-        <v>0.009259859048912572</v>
+        <v>0.002931851471694898</v>
       </c>
       <c r="G15">
-        <v>0.0185140571897549</v>
+        <v>0.03535825179830935</v>
       </c>
       <c r="H15">
-        <v>0.005048935947260504</v>
+        <v>0.03912304564205084</v>
       </c>
       <c r="I15">
-        <v>-0.01771530616104605</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>0.02055960411729451</v>
+      </c>
+      <c r="J15">
+        <v>-0.01537738444991705</v>
+      </c>
+      <c r="K15">
+        <v>-0.05231108302071572</v>
+      </c>
+      <c r="L15">
+        <v>-0.04747638894267833</v>
+      </c>
+      <c r="M15">
+        <v>1.021207260046554e-06</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B16">
-        <v>-0.05044125774349476</v>
+        <v>-0.07014151126281587</v>
       </c>
       <c r="C16">
-        <v>0.08930181457729058</v>
+        <v>0.07861960127459558</v>
       </c>
       <c r="D16">
-        <v>0.02851169403422549</v>
+        <v>0.01918905444367527</v>
       </c>
       <c r="E16">
-        <v>0.02402774367234503</v>
+        <v>-0.01159819995424245</v>
       </c>
       <c r="F16">
-        <v>-0.03111926859530007</v>
+        <v>0.1080826809438186</v>
       </c>
       <c r="G16">
-        <v>0.02646058168956151</v>
+        <v>-0.03069100571238617</v>
       </c>
       <c r="H16">
-        <v>-0.02548780574452404</v>
+        <v>0.04004289078977766</v>
       </c>
       <c r="I16">
-        <v>0.09249340238541402</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>-0.05663837657767504</v>
+      </c>
+      <c r="J16">
+        <v>0.0467823458767062</v>
+      </c>
+      <c r="K16">
+        <v>0.08062507286359645</v>
+      </c>
+      <c r="L16">
+        <v>-0.01838329752061339</v>
+      </c>
+      <c r="M16">
+        <v>-0.05979488064631212</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1199,10 +1403,22 @@
       <c r="I17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1228,10 +1444,22 @@
       <c r="I18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1257,213 +1485,309 @@
       <c r="I19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:9">
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B20">
-        <v>-0.03975834942385899</v>
+        <v>-0.04308153055771809</v>
       </c>
       <c r="C20">
-        <v>0.04427567988136246</v>
+        <v>0.03114813761921286</v>
       </c>
       <c r="D20">
-        <v>0.01404677703479439</v>
+        <v>-0.0273535987098584</v>
       </c>
       <c r="E20">
-        <v>0.01114989988904795</v>
+        <v>-0.01771505390422394</v>
       </c>
       <c r="F20">
-        <v>-0.01098312014607987</v>
+        <v>0.05429356462458469</v>
       </c>
       <c r="G20">
-        <v>0.0391515003104584</v>
+        <v>-0.02749952178683709</v>
       </c>
       <c r="H20">
-        <v>-0.003235423711146876</v>
+        <v>0.04379258301706902</v>
       </c>
       <c r="I20">
-        <v>0.03305841481926599</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>-0.05519182441350067</v>
+      </c>
+      <c r="J20">
+        <v>0.01638377206766306</v>
+      </c>
+      <c r="K20">
+        <v>-0.02308589755122053</v>
+      </c>
+      <c r="L20">
+        <v>-0.05807041021471157</v>
+      </c>
+      <c r="M20">
+        <v>-0.02240085535656396</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B21">
-        <v>-0.008902695163712985</v>
+        <v>-0.02376890139340502</v>
       </c>
       <c r="C21">
-        <v>0.01855256133461674</v>
+        <v>0.01969323012585216</v>
       </c>
       <c r="D21">
-        <v>-0.009897376550840694</v>
+        <v>-0.01756654908829603</v>
       </c>
       <c r="E21">
-        <v>0.07495280332916976</v>
+        <v>-0.01349433910625152</v>
       </c>
       <c r="F21">
-        <v>0.05568011658000644</v>
+        <v>0.04726318954888771</v>
       </c>
       <c r="G21">
-        <v>-0.07304191628508225</v>
+        <v>0.09589559677697422</v>
       </c>
       <c r="H21">
-        <v>0.007672126940936663</v>
+        <v>0.001217874290051343</v>
       </c>
       <c r="I21">
-        <v>-0.07048307504304466</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>-0.05220826347076803</v>
+      </c>
+      <c r="J21">
+        <v>-0.03266846131646262</v>
+      </c>
+      <c r="K21">
+        <v>-0.04344866320236821</v>
+      </c>
+      <c r="L21">
+        <v>-0.07856924732381527</v>
+      </c>
+      <c r="M21">
+        <v>-0.002222839110802417</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B22">
-        <v>-0.01453375023780423</v>
+        <v>-0.04081283791749728</v>
       </c>
       <c r="C22">
-        <v>0.06089535525420639</v>
+        <v>0.03269602280792811</v>
       </c>
       <c r="D22">
-        <v>-0.1277698325203804</v>
+        <v>-0.6535368082416657</v>
       </c>
       <c r="E22">
-        <v>0.4666374819531397</v>
+        <v>-0.04864073756359385</v>
       </c>
       <c r="F22">
-        <v>0.1534998134883053</v>
+        <v>-0.0892850842878353</v>
       </c>
       <c r="G22">
-        <v>0.2167747589616063</v>
+        <v>-0.07196202434759842</v>
       </c>
       <c r="H22">
-        <v>-0.2621691986355932</v>
+        <v>-0.07474144355670255</v>
       </c>
       <c r="I22">
-        <v>-0.07808132143675212</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>-0.08451597457996672</v>
+      </c>
+      <c r="J22">
+        <v>-0.07471389801068935</v>
+      </c>
+      <c r="K22">
+        <v>0.06097604439967689</v>
+      </c>
+      <c r="L22">
+        <v>0.02535001455386059</v>
+      </c>
+      <c r="M22">
+        <v>0.0309885092203821</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B23">
-        <v>-0.01554520198905511</v>
+        <v>-0.04153245050354578</v>
       </c>
       <c r="C23">
-        <v>0.05987404998566501</v>
+        <v>0.03309378159666156</v>
       </c>
       <c r="D23">
-        <v>-0.1279401761049297</v>
+        <v>-0.6551902587522478</v>
       </c>
       <c r="E23">
-        <v>0.4678644529768224</v>
+        <v>-0.04910247014102949</v>
       </c>
       <c r="F23">
-        <v>0.1515778014092543</v>
+        <v>-0.08456213368400087</v>
       </c>
       <c r="G23">
-        <v>0.212669409959193</v>
+        <v>-0.07193979306290328</v>
       </c>
       <c r="H23">
-        <v>-0.259727608729469</v>
+        <v>-0.07617695055281075</v>
       </c>
       <c r="I23">
-        <v>-0.07974679104756371</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>-0.08309860443972648</v>
+      </c>
+      <c r="J23">
+        <v>-0.07433776159008221</v>
+      </c>
+      <c r="K23">
+        <v>0.05726404729596525</v>
+      </c>
+      <c r="L23">
+        <v>0.0293095570129391</v>
+      </c>
+      <c r="M23">
+        <v>0.03254384472555972</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B24">
-        <v>-0.06995797583661383</v>
+        <v>-0.07611632531988778</v>
       </c>
       <c r="C24">
-        <v>0.08281992255014588</v>
+        <v>0.07575154529935911</v>
       </c>
       <c r="D24">
-        <v>0.04099201797818849</v>
+        <v>0.01641047874396406</v>
       </c>
       <c r="E24">
-        <v>0.03568420055270211</v>
+        <v>-0.01549802492924442</v>
       </c>
       <c r="F24">
-        <v>-0.03563166381601553</v>
+        <v>0.1094505048572577</v>
       </c>
       <c r="G24">
-        <v>-0.0003065345359525322</v>
+        <v>-0.01886175749400672</v>
       </c>
       <c r="H24">
-        <v>-0.02305325346345876</v>
+        <v>0.02581589706530733</v>
       </c>
       <c r="I24">
-        <v>0.03725562957354867</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>-0.05007892350538552</v>
+      </c>
+      <c r="J24">
+        <v>0.03282101655545304</v>
+      </c>
+      <c r="K24">
+        <v>0.07014024039387159</v>
+      </c>
+      <c r="L24">
+        <v>0.01340612080682651</v>
+      </c>
+      <c r="M24">
+        <v>-0.08047242886248362</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B25">
-        <v>-0.06388398122407977</v>
+        <v>-0.07221112380363824</v>
       </c>
       <c r="C25">
-        <v>0.04426741084167204</v>
+        <v>0.04903508030967792</v>
       </c>
       <c r="D25">
-        <v>0.03467261123460895</v>
+        <v>0.02976767829072535</v>
       </c>
       <c r="E25">
-        <v>0.04562809481775679</v>
+        <v>-0.01303511422687515</v>
       </c>
       <c r="F25">
-        <v>-0.04397548912726453</v>
+        <v>0.1157782752853949</v>
       </c>
       <c r="G25">
-        <v>0.01713699414789648</v>
+        <v>-0.03493559593304756</v>
       </c>
       <c r="H25">
-        <v>0.007280940024024149</v>
+        <v>0.04370199868612604</v>
       </c>
       <c r="I25">
-        <v>0.04215944568152172</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>-0.05740846655142481</v>
+      </c>
+      <c r="J25">
+        <v>0.04528663352889782</v>
+      </c>
+      <c r="K25">
+        <v>0.07380216338439943</v>
+      </c>
+      <c r="L25">
+        <v>0.03392507697793994</v>
+      </c>
+      <c r="M25">
+        <v>-0.07542605220426873</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B26">
-        <v>-0.03798048849369338</v>
+        <v>-0.04200990017545688</v>
       </c>
       <c r="C26">
-        <v>0.03175006807028542</v>
+        <v>0.02320745250225539</v>
       </c>
       <c r="D26">
-        <v>0.03919135519598959</v>
+        <v>-0.01280232802997423</v>
       </c>
       <c r="E26">
-        <v>-0.00209504460329077</v>
+        <v>-0.001174934739604985</v>
       </c>
       <c r="F26">
-        <v>0.008480533175521946</v>
+        <v>0.03353797169463239</v>
       </c>
       <c r="G26">
-        <v>0.02532378152732392</v>
+        <v>-0.008136169989267616</v>
       </c>
       <c r="H26">
-        <v>-0.007940899030948044</v>
+        <v>0.03824538368556174</v>
       </c>
       <c r="I26">
-        <v>0.01317993756163154</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>-0.01736629970024465</v>
+      </c>
+      <c r="J26">
+        <v>-0.06629897527480182</v>
+      </c>
+      <c r="K26">
+        <v>-0.04149824195438936</v>
+      </c>
+      <c r="L26">
+        <v>-0.1468391982391966</v>
+      </c>
+      <c r="M26">
+        <v>0.04018598443693804</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1489,271 +1813,391 @@
       <c r="I27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:9">
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B28">
-        <v>-0.1222434890922012</v>
+        <v>-0.1442097694539325</v>
       </c>
       <c r="C28">
-        <v>-0.2971723998739106</v>
+        <v>-0.2878935142638774</v>
       </c>
       <c r="D28">
-        <v>0.02800563078973809</v>
+        <v>0.004655205014524662</v>
       </c>
       <c r="E28">
-        <v>0.00514221319118746</v>
+        <v>-0.02552170746378027</v>
       </c>
       <c r="F28">
-        <v>0.05279571429896442</v>
+        <v>-0.002516276928123866</v>
       </c>
       <c r="G28">
-        <v>-0.0261593133822582</v>
+        <v>0.01531875940517223</v>
       </c>
       <c r="H28">
-        <v>-0.01740934916928596</v>
+        <v>-0.01583207496645788</v>
       </c>
       <c r="I28">
-        <v>0.08316764716097461</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>-0.009710201097260372</v>
+      </c>
+      <c r="J28">
+        <v>0.01422773346009002</v>
+      </c>
+      <c r="K28">
+        <v>-0.006689729254295819</v>
+      </c>
+      <c r="L28">
+        <v>-0.03952152639759807</v>
+      </c>
+      <c r="M28">
+        <v>0.03020642207685224</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B29">
-        <v>-0.0491616987517513</v>
+        <v>-0.04527826013301656</v>
       </c>
       <c r="C29">
-        <v>0.01593608975833875</v>
+        <v>0.02346076426600791</v>
       </c>
       <c r="D29">
-        <v>0.0108631161536294</v>
+        <v>-0.002815715968160637</v>
       </c>
       <c r="E29">
-        <v>0.02265542077218293</v>
+        <v>-0.01918434563839901</v>
       </c>
       <c r="F29">
-        <v>0.001829347837160248</v>
+        <v>0.04706560141372356</v>
       </c>
       <c r="G29">
-        <v>0.01946198594770809</v>
+        <v>-0.03541050392824106</v>
       </c>
       <c r="H29">
-        <v>0.03753208411791521</v>
+        <v>0.05337208881742518</v>
       </c>
       <c r="I29">
-        <v>0.008097721163552797</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>-0.02243082073283094</v>
+      </c>
+      <c r="J29">
+        <v>-0.02787849245574562</v>
+      </c>
+      <c r="K29">
+        <v>-0.03506169956936848</v>
+      </c>
+      <c r="L29">
+        <v>-0.03746659182374076</v>
+      </c>
+      <c r="M29">
+        <v>0.03010088781942401</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B30">
-        <v>-0.1213731874597042</v>
+        <v>-0.09868838844044382</v>
       </c>
       <c r="C30">
-        <v>0.08058646782179502</v>
+        <v>0.0660776104320466</v>
       </c>
       <c r="D30">
-        <v>0.0608988503879306</v>
+        <v>-0.005876350120323666</v>
       </c>
       <c r="E30">
-        <v>0.06139291877249908</v>
+        <v>-0.02436662270172344</v>
       </c>
       <c r="F30">
-        <v>0.02401852768167102</v>
+        <v>0.1743427483375578</v>
       </c>
       <c r="G30">
-        <v>0.00327457383426248</v>
+        <v>-0.0602170785439106</v>
       </c>
       <c r="H30">
-        <v>-0.01349807737087224</v>
+        <v>-0.02030141313366007</v>
       </c>
       <c r="I30">
-        <v>0.089003985472424</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>-0.2829047717885294</v>
+      </c>
+      <c r="J30">
+        <v>-0.001948281566334043</v>
+      </c>
+      <c r="K30">
+        <v>-0.01536059658055978</v>
+      </c>
+      <c r="L30">
+        <v>-0.1866425880441563</v>
+      </c>
+      <c r="M30">
+        <v>0.1152975779593254</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B31">
-        <v>-0.04494402161732351</v>
+        <v>-0.03543101685232968</v>
       </c>
       <c r="C31">
-        <v>0.02272901554264608</v>
+        <v>0.04470056642657105</v>
       </c>
       <c r="D31">
-        <v>-0.003015814894571802</v>
+        <v>-0.00635740423155337</v>
       </c>
       <c r="E31">
-        <v>-0.01159408924510236</v>
+        <v>0.007962280093204509</v>
       </c>
       <c r="F31">
-        <v>0.01711396391312698</v>
+        <v>0.01479040848321235</v>
       </c>
       <c r="G31">
-        <v>0.04350183563749214</v>
+        <v>-0.02784363732376236</v>
       </c>
       <c r="H31">
-        <v>-0.01092622017230165</v>
+        <v>0.04641699192955497</v>
       </c>
       <c r="I31">
-        <v>-0.01927481188560237</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>0.01213859040679891</v>
+      </c>
+      <c r="J31">
+        <v>0.02185418350541463</v>
+      </c>
+      <c r="K31">
+        <v>-0.01745325150957455</v>
+      </c>
+      <c r="L31">
+        <v>-0.01643864412348111</v>
+      </c>
+      <c r="M31">
+        <v>-0.006836922466083001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B32">
-        <v>-0.02154134145745494</v>
+        <v>-0.04477737795806717</v>
       </c>
       <c r="C32">
-        <v>0.001382211384227401</v>
+        <v>-0.002824623831044999</v>
       </c>
       <c r="D32">
-        <v>-0.0377395131024807</v>
+        <v>0.003265705463041364</v>
       </c>
       <c r="E32">
-        <v>0.07848517402997698</v>
+        <v>0.001248768123049057</v>
       </c>
       <c r="F32">
-        <v>-0.03713707053563543</v>
+        <v>0.07876893272535808</v>
       </c>
       <c r="G32">
-        <v>0.02543875889188415</v>
+        <v>0.03308469233005101</v>
       </c>
       <c r="H32">
-        <v>-0.04807279594463638</v>
+        <v>0.04883457982477969</v>
       </c>
       <c r="I32">
-        <v>0.09548824732222175</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>0.0624852240450228</v>
+      </c>
+      <c r="J32">
+        <v>0.01738908881175654</v>
+      </c>
+      <c r="K32">
+        <v>0.02909598599452797</v>
+      </c>
+      <c r="L32">
+        <v>-0.05323984896791209</v>
+      </c>
+      <c r="M32">
+        <v>0.122485006406449</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B33">
-        <v>-0.1009477167340746</v>
+        <v>-0.09649919819878927</v>
       </c>
       <c r="C33">
-        <v>0.06179479529588647</v>
+        <v>0.06657372767055846</v>
       </c>
       <c r="D33">
-        <v>0.002229547798325984</v>
+        <v>0.007356822872978288</v>
       </c>
       <c r="E33">
-        <v>-0.001570168544264132</v>
+        <v>0.01909513565557447</v>
       </c>
       <c r="F33">
-        <v>-0.02097840749367895</v>
+        <v>0.06579080375966591</v>
       </c>
       <c r="G33">
-        <v>0.04213241329983503</v>
+        <v>-0.03010966878973552</v>
       </c>
       <c r="H33">
-        <v>-0.02511046659638702</v>
+        <v>0.05497143736533668</v>
       </c>
       <c r="I33">
-        <v>0.01371049276214432</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>-0.03146137791396012</v>
+      </c>
+      <c r="J33">
+        <v>-0.03332777101917301</v>
+      </c>
+      <c r="K33">
+        <v>-0.02048912463419713</v>
+      </c>
+      <c r="L33">
+        <v>-0.0143780609002965</v>
+      </c>
+      <c r="M33">
+        <v>-0.02325937211032085</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B34">
-        <v>-0.05185204675522208</v>
+        <v>-0.06272223171938256</v>
       </c>
       <c r="C34">
-        <v>0.0831842363752453</v>
+        <v>0.06333139335373932</v>
       </c>
       <c r="D34">
-        <v>0.02231839552150214</v>
+        <v>0.02576968599258803</v>
       </c>
       <c r="E34">
-        <v>0.03716261334231778</v>
+        <v>-0.009171855829198338</v>
       </c>
       <c r="F34">
-        <v>-0.02438501492309115</v>
+        <v>0.0974157967008708</v>
       </c>
       <c r="G34">
-        <v>0.008102468924496139</v>
+        <v>-0.02121037519669496</v>
       </c>
       <c r="H34">
-        <v>-0.01902041067569328</v>
+        <v>0.04619530696663334</v>
       </c>
       <c r="I34">
-        <v>0.0474642447825728</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>-0.03784497789304958</v>
+      </c>
+      <c r="J34">
+        <v>0.02990842689681278</v>
+      </c>
+      <c r="K34">
+        <v>0.05332637337353548</v>
+      </c>
+      <c r="L34">
+        <v>0.004082068501032925</v>
+      </c>
+      <c r="M34">
+        <v>-0.08818622462718025</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B35">
-        <v>-0.03533651640526358</v>
+        <v>-0.02655073872169531</v>
       </c>
       <c r="C35">
-        <v>0.02963925742721664</v>
+        <v>0.0243219294358235</v>
       </c>
       <c r="D35">
-        <v>0.002308192349893739</v>
+        <v>-0.00206712247104172</v>
       </c>
       <c r="E35">
-        <v>0.01107260302887326</v>
+        <v>0.002533096217488612</v>
       </c>
       <c r="F35">
-        <v>-0.009282346560337199</v>
+        <v>0.01754186105991969</v>
       </c>
       <c r="G35">
-        <v>0.0329322434985559</v>
+        <v>-0.02168805537019925</v>
       </c>
       <c r="H35">
-        <v>-0.01388828374815696</v>
+        <v>0.03571645537771223</v>
       </c>
       <c r="I35">
-        <v>0.02871962203491088</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>-0.05014448737435398</v>
+      </c>
+      <c r="J35">
+        <v>0.0008045164282821658</v>
+      </c>
+      <c r="K35">
+        <v>0.02830306146703614</v>
+      </c>
+      <c r="L35">
+        <v>-0.06367619574187419</v>
+      </c>
+      <c r="M35">
+        <v>0.006478687535545468</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B36">
-        <v>-0.02717751477938353</v>
+        <v>-0.0294714211149055</v>
       </c>
       <c r="C36">
-        <v>0.0196066066693963</v>
+        <v>0.02061763545438947</v>
       </c>
       <c r="D36">
-        <v>0.02789065784012661</v>
+        <v>-0.01438460718479231</v>
       </c>
       <c r="E36">
-        <v>0.01746746984476709</v>
+        <v>-0.01363501359891248</v>
       </c>
       <c r="F36">
-        <v>-0.01147341583992731</v>
+        <v>0.0621690058389559</v>
       </c>
       <c r="G36">
-        <v>0.02768392008589016</v>
+        <v>-0.0140214772161177</v>
       </c>
       <c r="H36">
-        <v>0.01507680404479402</v>
+        <v>0.04241530875186459</v>
       </c>
       <c r="I36">
-        <v>-0.001672756539705394</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>-0.03787909255145425</v>
+      </c>
+      <c r="J36">
+        <v>-0.01412350312201655</v>
+      </c>
+      <c r="K36">
+        <v>-0.03102280092865571</v>
+      </c>
+      <c r="L36">
+        <v>-0.04580275491539034</v>
+      </c>
+      <c r="M36">
+        <v>-0.02308495444523804</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1779,126 +2223,186 @@
       <c r="I37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:9">
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
       <c r="A38" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B38">
-        <v>-0.03824987969981686</v>
+        <v>-0.03087299844972765</v>
       </c>
       <c r="C38">
-        <v>0.03098753271871715</v>
+        <v>0.04705140814244799</v>
       </c>
       <c r="D38">
-        <v>-0.02214922944268033</v>
+        <v>-0.02236325728539978</v>
       </c>
       <c r="E38">
-        <v>0.03330399842644473</v>
+        <v>-0.004656440242582933</v>
       </c>
       <c r="F38">
-        <v>-0.00705390045204154</v>
+        <v>-0.04503610805149977</v>
       </c>
       <c r="G38">
-        <v>0.002228213682344313</v>
+        <v>-0.04761700789429633</v>
       </c>
       <c r="H38">
-        <v>-0.0414243762315518</v>
+        <v>-0.04320395003610296</v>
       </c>
       <c r="I38">
-        <v>0.02240047782404381</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>0.0218711623918359</v>
+      </c>
+      <c r="J38">
+        <v>-0.1146617178310933</v>
+      </c>
+      <c r="K38">
+        <v>0.01054499542458851</v>
+      </c>
+      <c r="L38">
+        <v>-0.07987774846594758</v>
+      </c>
+      <c r="M38">
+        <v>0.05835813621964128</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
       <c r="A39" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B39">
-        <v>-0.09599518099837452</v>
+        <v>-0.09718647955076884</v>
       </c>
       <c r="C39">
-        <v>0.1079724793179852</v>
+        <v>0.08991576960051929</v>
       </c>
       <c r="D39">
-        <v>0.01760578272868972</v>
+        <v>0.08003960594561138</v>
       </c>
       <c r="E39">
-        <v>0.02320370104247506</v>
+        <v>0.02110972807304099</v>
       </c>
       <c r="F39">
-        <v>-0.03924235865683307</v>
+        <v>0.1488123942616437</v>
       </c>
       <c r="G39">
-        <v>-0.03501019158714463</v>
+        <v>-0.09362324332605776</v>
       </c>
       <c r="H39">
-        <v>-0.0650178429124682</v>
+        <v>-0.01367193728959598</v>
       </c>
       <c r="I39">
-        <v>0.1478060082017502</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>-0.1278938722446356</v>
+      </c>
+      <c r="J39">
+        <v>0.11152845037076</v>
+      </c>
+      <c r="K39">
+        <v>0.1767259911998893</v>
+      </c>
+      <c r="L39">
+        <v>-0.03255248731769744</v>
+      </c>
+      <c r="M39">
+        <v>0.02336367272419588</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
       <c r="A40" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B40">
-        <v>-0.05752977912818454</v>
+        <v>-0.03656722943773504</v>
       </c>
       <c r="C40">
-        <v>0.05293228648227156</v>
+        <v>0.05971612941849087</v>
       </c>
       <c r="D40">
-        <v>-0.04255315421818099</v>
+        <v>-0.04980014399002565</v>
       </c>
       <c r="E40">
-        <v>0.1401105466310215</v>
+        <v>0.007199442413679662</v>
       </c>
       <c r="F40">
-        <v>-0.04056975608648992</v>
+        <v>0.1220400014537998</v>
       </c>
       <c r="G40">
-        <v>0.02255332706350993</v>
+        <v>0.06260406008008043</v>
       </c>
       <c r="H40">
-        <v>-0.08361390110461772</v>
+        <v>0.00668139282576492</v>
       </c>
       <c r="I40">
-        <v>0.1459534900588846</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>-0.005869786031421973</v>
+      </c>
+      <c r="J40">
+        <v>-0.1161984399091501</v>
+      </c>
+      <c r="K40">
+        <v>0.06175826279110575</v>
+      </c>
+      <c r="L40">
+        <v>-0.1228791630810805</v>
+      </c>
+      <c r="M40">
+        <v>0.001997822073734055</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
       <c r="A41" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B41">
-        <v>-0.04234011376667642</v>
+        <v>-0.03542248041311115</v>
       </c>
       <c r="C41">
-        <v>0.05509124334328176</v>
+        <v>0.03661909308457744</v>
       </c>
       <c r="D41">
-        <v>0.01005457055823266</v>
+        <v>0.01836404271517406</v>
       </c>
       <c r="E41">
-        <v>-0.006441843972549776</v>
+        <v>0.002674609291159851</v>
       </c>
       <c r="F41">
-        <v>-0.01844228974344363</v>
+        <v>0.01638181740250703</v>
       </c>
       <c r="G41">
-        <v>0.02377639029280131</v>
+        <v>-0.02884650268970223</v>
       </c>
       <c r="H41">
-        <v>-0.02166294499103492</v>
+        <v>0.006809953643189505</v>
       </c>
       <c r="I41">
-        <v>0.0370155287468223</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>0.0133020389508608</v>
+      </c>
+      <c r="J41">
+        <v>-0.01132597776968139</v>
+      </c>
+      <c r="K41">
+        <v>0.007704853677742821</v>
+      </c>
+      <c r="L41">
+        <v>-0.04577136094971341</v>
+      </c>
+      <c r="M41">
+        <v>-0.02585615422590613</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
       <c r="A42" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1924,68 +2428,104 @@
       <c r="I42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:9">
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
       <c r="A43" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B43">
-        <v>-0.05463817431727747</v>
+        <v>-0.04995084735806984</v>
       </c>
       <c r="C43">
-        <v>0.04441304974670129</v>
+        <v>0.04704112281897039</v>
       </c>
       <c r="D43">
-        <v>0.02736452891190195</v>
+        <v>-0.01273568463986994</v>
       </c>
       <c r="E43">
-        <v>0.01644012325065869</v>
+        <v>-0.01278582271543169</v>
       </c>
       <c r="F43">
-        <v>0.009475591341965624</v>
+        <v>0.01217472786271623</v>
       </c>
       <c r="G43">
-        <v>0.02331403110574515</v>
+        <v>-0.06206500485053271</v>
       </c>
       <c r="H43">
-        <v>-0.03805629466121939</v>
+        <v>0.0007228239321403524</v>
       </c>
       <c r="I43">
-        <v>-0.01919082922453709</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>-0.0002992464965876144</v>
+      </c>
+      <c r="J43">
+        <v>0.006881466424882881</v>
+      </c>
+      <c r="K43">
+        <v>0.008766273231817235</v>
+      </c>
+      <c r="L43">
+        <v>-0.03222560964615571</v>
+      </c>
+      <c r="M43">
+        <v>-0.02758229595901369</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
       <c r="A44" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B44">
-        <v>-0.05346504116180335</v>
+        <v>-0.08254607602131378</v>
       </c>
       <c r="C44">
-        <v>0.03050196904389603</v>
+        <v>0.06124481072302618</v>
       </c>
       <c r="D44">
-        <v>0.06527175972526013</v>
+        <v>-0.07057132288283056</v>
       </c>
       <c r="E44">
-        <v>0.1280067810946783</v>
+        <v>-0.09058172323235812</v>
       </c>
       <c r="F44">
-        <v>-0.05082044067272352</v>
+        <v>0.1576853087841447</v>
       </c>
       <c r="G44">
-        <v>0.01702236710107385</v>
+        <v>-0.009400607482239007</v>
       </c>
       <c r="H44">
-        <v>0.00357253477452088</v>
+        <v>0.0735236339015224</v>
       </c>
       <c r="I44">
-        <v>0.1136764710231592</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>-0.05179501538616492</v>
+      </c>
+      <c r="J44">
+        <v>-0.02084821337410646</v>
+      </c>
+      <c r="K44">
+        <v>0.04539733359468584</v>
+      </c>
+      <c r="L44">
+        <v>-0.05990317465657443</v>
+      </c>
+      <c r="M44">
+        <v>0.06928341392107625</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
       <c r="A45" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -2011,329 +2551,473 @@
       <c r="I45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:9">
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
       <c r="A46" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B46">
-        <v>-0.02204516055038943</v>
+        <v>-0.03473521304977854</v>
       </c>
       <c r="C46">
-        <v>0.04278866206938334</v>
+        <v>0.03876239755209702</v>
       </c>
       <c r="D46">
-        <v>0.01337620909702622</v>
+        <v>-0.04851495184631569</v>
       </c>
       <c r="E46">
-        <v>0.04660823122625405</v>
+        <v>-0.03405000403058098</v>
       </c>
       <c r="F46">
-        <v>-0.002222988474594667</v>
+        <v>0.02170702592705247</v>
       </c>
       <c r="G46">
-        <v>0.002769460360566727</v>
+        <v>0.008190234836552684</v>
       </c>
       <c r="H46">
-        <v>-0.0007946776157388717</v>
+        <v>0.06476049052701065</v>
       </c>
       <c r="I46">
-        <v>0.02179278395586719</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>-0.002053601639609599</v>
+      </c>
+      <c r="J46">
+        <v>-0.04238012834340397</v>
+      </c>
+      <c r="K46">
+        <v>-0.04987456181451094</v>
+      </c>
+      <c r="L46">
+        <v>-0.06503252698300863</v>
+      </c>
+      <c r="M46">
+        <v>0.005920496106832091</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
       <c r="A47" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B47">
-        <v>-0.02695757320476156</v>
+        <v>-0.04523653177794141</v>
       </c>
       <c r="C47">
-        <v>0.002612597211198969</v>
+        <v>0.0277122326857854</v>
       </c>
       <c r="D47">
-        <v>-0.01414049862401279</v>
+        <v>-0.02231401498009114</v>
       </c>
       <c r="E47">
-        <v>0.06604087855316912</v>
+        <v>-0.005703661312830912</v>
       </c>
       <c r="F47">
-        <v>-0.008682294459432513</v>
+        <v>0.03041985192360291</v>
       </c>
       <c r="G47">
-        <v>0.04092932537999486</v>
+        <v>-0.02602582199621162</v>
       </c>
       <c r="H47">
-        <v>0.02244783503462272</v>
+        <v>0.0263775250069115</v>
       </c>
       <c r="I47">
-        <v>-0.02047792445352941</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>-0.03436308246540547</v>
+      </c>
+      <c r="J47">
+        <v>-0.03245829644172664</v>
+      </c>
+      <c r="K47">
+        <v>-0.0309469463757172</v>
+      </c>
+      <c r="L47">
+        <v>-0.01754370599079119</v>
+      </c>
+      <c r="M47">
+        <v>-0.04100712785421737</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
       <c r="A48" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B48">
-        <v>-0.03179825945661692</v>
+        <v>-0.04247460215083455</v>
       </c>
       <c r="C48">
-        <v>0.0266974259731631</v>
+        <v>0.02087626835048866</v>
       </c>
       <c r="D48">
-        <v>0.00641908209933225</v>
+        <v>-0.01458008525056005</v>
       </c>
       <c r="E48">
-        <v>0.04112807949479007</v>
+        <v>-0.001225500881186914</v>
       </c>
       <c r="F48">
-        <v>0.003562685130415682</v>
+        <v>0.06728002214788377</v>
       </c>
       <c r="G48">
-        <v>0.04530435555890892</v>
+        <v>0.02018264281562894</v>
       </c>
       <c r="H48">
-        <v>-0.0221873298274897</v>
+        <v>0.05289543941561428</v>
       </c>
       <c r="I48">
-        <v>-0.005938527921303877</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>-0.03815504257905083</v>
+      </c>
+      <c r="J48">
+        <v>0.009911908691879568</v>
+      </c>
+      <c r="K48">
+        <v>-0.006683881075287183</v>
+      </c>
+      <c r="L48">
+        <v>-0.05473347754135805</v>
+      </c>
+      <c r="M48">
+        <v>-0.02530091442818619</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
       <c r="A49" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B49">
-        <v>-0.1900836088788446</v>
+        <v>-0.2248131606793821</v>
       </c>
       <c r="C49">
-        <v>0.1259494680601887</v>
+        <v>0.08533435128417494</v>
       </c>
       <c r="D49">
-        <v>0.08300976442319548</v>
+        <v>0.0653803866658816</v>
       </c>
       <c r="E49">
-        <v>-0.0714490888279888</v>
+        <v>-0.03301536498506048</v>
       </c>
       <c r="F49">
-        <v>0.1521296145486458</v>
+        <v>-0.2273776095448762</v>
       </c>
       <c r="G49">
-        <v>-0.1335146189791954</v>
+        <v>0.1558387118828044</v>
       </c>
       <c r="H49">
-        <v>0.04209854250767642</v>
+        <v>-0.04703354449764174</v>
       </c>
       <c r="I49">
-        <v>0.03266022935943202</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>-0.1002802545279067</v>
+      </c>
+      <c r="J49">
+        <v>-0.02294759284345347</v>
+      </c>
+      <c r="K49">
+        <v>0.1773022750941357</v>
+      </c>
+      <c r="L49">
+        <v>0.1352085696552967</v>
+      </c>
+      <c r="M49">
+        <v>-0.08274754519776721</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
       <c r="A50" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B50">
-        <v>-0.05252590757907836</v>
+        <v>-0.04296123209820443</v>
       </c>
       <c r="C50">
-        <v>0.03090046358048113</v>
+        <v>0.04236231560136364</v>
       </c>
       <c r="D50">
-        <v>0.006534650795855267</v>
+        <v>-0.003327766763160229</v>
       </c>
       <c r="E50">
-        <v>0.01684995198982844</v>
+        <v>0.008923357480420479</v>
       </c>
       <c r="F50">
-        <v>-0.00704192411347241</v>
+        <v>0.04140808054285867</v>
       </c>
       <c r="G50">
-        <v>0.0776416721618718</v>
+        <v>-0.03892070108040478</v>
       </c>
       <c r="H50">
-        <v>0.02745242869702307</v>
+        <v>0.04354627842741424</v>
       </c>
       <c r="I50">
-        <v>-0.007838212988207161</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>-0.01512363883036699</v>
+      </c>
+      <c r="J50">
+        <v>-0.01064014992466546</v>
+      </c>
+      <c r="K50">
+        <v>-0.04978759901422491</v>
+      </c>
+      <c r="L50">
+        <v>-0.02335040609033144</v>
+      </c>
+      <c r="M50">
+        <v>0.04663472787628904</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
       <c r="A51" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B51">
-        <v>-0.02421234541671015</v>
+        <v>-0.03026672588740484</v>
       </c>
       <c r="C51">
-        <v>0.01285575649373316</v>
+        <v>0.005839730427704235</v>
       </c>
       <c r="D51">
-        <v>-0.01070064564919048</v>
+        <v>0.001351102273760018</v>
       </c>
       <c r="E51">
-        <v>0.01170263727553508</v>
+        <v>-0.0169381727131145</v>
       </c>
       <c r="F51">
-        <v>-0.002772272320191085</v>
+        <v>-0.01739243086026876</v>
       </c>
       <c r="G51">
-        <v>-0.02948950704249107</v>
+        <v>-0.002515826820504438</v>
       </c>
       <c r="H51">
-        <v>-0.001197460332139817</v>
+        <v>-0.02545138301759447</v>
       </c>
       <c r="I51">
-        <v>0.02910524682039319</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>-0.008574026162678085</v>
+      </c>
+      <c r="J51">
+        <v>0.03017918068591536</v>
+      </c>
+      <c r="K51">
+        <v>0.05900157488012054</v>
+      </c>
+      <c r="L51">
+        <v>0.05841061654022087</v>
+      </c>
+      <c r="M51">
+        <v>-0.01775936450847915</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
       <c r="A52" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>-0.01198613265894714</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>0.003263036562671822</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>0.01476040691676612</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>-0.004756344212650101</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>0.003013681181382831</v>
       </c>
       <c r="G52">
-        <v>0</v>
+        <v>-0.002569220580318959</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>-0.004641487753066916</v>
       </c>
       <c r="I52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>-0.004360748546063047</v>
+      </c>
+      <c r="J52">
+        <v>0.02115405450890396</v>
+      </c>
+      <c r="K52">
+        <v>0.003496470272688199</v>
+      </c>
+      <c r="L52">
+        <v>-0.000422891581243133</v>
+      </c>
+      <c r="M52">
+        <v>0.03220377846066765</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
       <c r="A53" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B53">
-        <v>-0.1656866893336794</v>
+        <v>-0.1540303833631321</v>
       </c>
       <c r="C53">
-        <v>0.01558722071193563</v>
+        <v>0.04646728446899318</v>
       </c>
       <c r="D53">
-        <v>0.02947894732032349</v>
+        <v>0.01687413695911076</v>
       </c>
       <c r="E53">
-        <v>-0.08101421074194495</v>
+        <v>0.00516916318711585</v>
       </c>
       <c r="F53">
-        <v>-0.2009235414055939</v>
+        <v>-0.06913271574147682</v>
       </c>
       <c r="G53">
-        <v>0.1671468899030927</v>
+        <v>-0.2101411403774631</v>
       </c>
       <c r="H53">
-        <v>-0.01946778765741348</v>
+        <v>0.05383953583213296</v>
       </c>
       <c r="I53">
-        <v>-0.04608447433326685</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>0.1040247593865259</v>
+      </c>
+      <c r="J53">
+        <v>-0.04764563789662131</v>
+      </c>
+      <c r="K53">
+        <v>-0.07141516167253101</v>
+      </c>
+      <c r="L53">
+        <v>0.07362763757787126</v>
+      </c>
+      <c r="M53">
+        <v>0.1126197063200612</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
       <c r="A54" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B54">
-        <v>-0.05131538942323887</v>
+        <v>-0.05896624538558722</v>
       </c>
       <c r="C54">
-        <v>0.03734512544218079</v>
+        <v>0.03310538412897097</v>
       </c>
       <c r="D54">
-        <v>0.0370976880710038</v>
+        <v>-0.02413042897100693</v>
       </c>
       <c r="E54">
-        <v>0.03533841620409891</v>
+        <v>-0.02644724373483725</v>
       </c>
       <c r="F54">
-        <v>-0.01402062068719047</v>
+        <v>0.1038104068159558</v>
       </c>
       <c r="G54">
-        <v>0.02821952029130614</v>
+        <v>0.01483572522794293</v>
       </c>
       <c r="H54">
-        <v>-0.01117816529415333</v>
+        <v>0.06399576691066548</v>
       </c>
       <c r="I54">
-        <v>-0.01753515246783856</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>0.003007256904568096</v>
+      </c>
+      <c r="J54">
+        <v>0.002809929774072348</v>
+      </c>
+      <c r="K54">
+        <v>-0.09458156669140268</v>
+      </c>
+      <c r="L54">
+        <v>-0.1015574112271818</v>
+      </c>
+      <c r="M54">
+        <v>-0.005642800956720581</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
       <c r="A55" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B55">
-        <v>-0.09295422402695741</v>
+        <v>-0.08557466018918936</v>
       </c>
       <c r="C55">
-        <v>0.008136086065936682</v>
+        <v>0.03703973853847867</v>
       </c>
       <c r="D55">
-        <v>0.02396678945285335</v>
+        <v>0.02620464194883863</v>
       </c>
       <c r="E55">
-        <v>-0.01331716195081053</v>
+        <v>-0.004623813896410179</v>
       </c>
       <c r="F55">
-        <v>-0.1714989238165999</v>
+        <v>0.005918270660080978</v>
       </c>
       <c r="G55">
-        <v>0.1596683359495595</v>
+        <v>-0.1445071810716804</v>
       </c>
       <c r="H55">
-        <v>0.01046400371934796</v>
+        <v>0.05877163169537841</v>
       </c>
       <c r="I55">
-        <v>-0.03233833709653111</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>0.06434807279824983</v>
+      </c>
+      <c r="J55">
+        <v>-0.03278814481505412</v>
+      </c>
+      <c r="K55">
+        <v>-0.04470446961296327</v>
+      </c>
+      <c r="L55">
+        <v>0.05394719358064191</v>
+      </c>
+      <c r="M55">
+        <v>0.05495696691479744</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
       <c r="A56" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B56">
-        <v>-0.1666341890269387</v>
+        <v>-0.1498609251105459</v>
       </c>
       <c r="C56">
-        <v>0.01437743281792686</v>
+        <v>0.06928078228602849</v>
       </c>
       <c r="D56">
-        <v>0.05143051102872177</v>
+        <v>0.03370218644407769</v>
       </c>
       <c r="E56">
-        <v>-0.07347976761940413</v>
+        <v>-0.01035049593860629</v>
       </c>
       <c r="F56">
-        <v>-0.171863373389087</v>
+        <v>-0.03881870078449109</v>
       </c>
       <c r="G56">
-        <v>0.1592005093955901</v>
+        <v>-0.2092956102754969</v>
       </c>
       <c r="H56">
-        <v>-0.0288348224790551</v>
+        <v>0.02488448369838044</v>
       </c>
       <c r="I56">
-        <v>-0.07577518391616711</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>0.1329936192782362</v>
+      </c>
+      <c r="J56">
+        <v>-0.05965002497663733</v>
+      </c>
+      <c r="K56">
+        <v>-0.06368574481441361</v>
+      </c>
+      <c r="L56">
+        <v>0.06034957184892093</v>
+      </c>
+      <c r="M56">
+        <v>0.07502262934967803</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
       <c r="A57" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2359,1112 +3043,1580 @@
       <c r="I57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:9">
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
       <c r="A58" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B58">
-        <v>-0.03971116072396225</v>
+        <v>-0.03788018506661914</v>
       </c>
       <c r="C58">
-        <v>0.04959214433098529</v>
+        <v>0.03268453237435903</v>
       </c>
       <c r="D58">
-        <v>0.01562987451257227</v>
+        <v>-0.0836494094250801</v>
       </c>
       <c r="E58">
-        <v>0.3213640051583031</v>
+        <v>-0.02737191179990424</v>
       </c>
       <c r="F58">
-        <v>0.2135075594542097</v>
+        <v>0.03745755473132324</v>
       </c>
       <c r="G58">
-        <v>0.05321133869503926</v>
+        <v>0.04760210946232149</v>
       </c>
       <c r="H58">
-        <v>0.1613936076764092</v>
+        <v>0.0360167010422491</v>
       </c>
       <c r="I58">
-        <v>-0.009260233926614746</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>-0.2784522669813707</v>
+      </c>
+      <c r="J58">
+        <v>0.2672362987270723</v>
+      </c>
+      <c r="K58">
+        <v>0.05063534956567745</v>
+      </c>
+      <c r="L58">
+        <v>-0.01668136606340277</v>
+      </c>
+      <c r="M58">
+        <v>-0.246208980321389</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
       <c r="A59" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B59">
-        <v>-0.2506675714342547</v>
+        <v>-0.2293710869809601</v>
       </c>
       <c r="C59">
-        <v>-0.4036046379408287</v>
+        <v>-0.3000643125613544</v>
       </c>
       <c r="D59">
-        <v>0.02886351076057641</v>
+        <v>0.03938887545040558</v>
       </c>
       <c r="E59">
-        <v>0.04094187869498048</v>
+        <v>-0.006691536868952208</v>
       </c>
       <c r="F59">
-        <v>-0.07113740295634509</v>
+        <v>0.02241423075029482</v>
       </c>
       <c r="G59">
-        <v>-0.03165524146186174</v>
+        <v>-0.05745892349750459</v>
       </c>
       <c r="H59">
-        <v>-0.0742658414466289</v>
+        <v>-0.02126950441545296</v>
       </c>
       <c r="I59">
-        <v>0.009152656543787118</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>0.1279334066310119</v>
+      </c>
+      <c r="J59">
+        <v>0.03896801359172901</v>
+      </c>
+      <c r="K59">
+        <v>0.05008261672881568</v>
+      </c>
+      <c r="L59">
+        <v>0.03773559064708704</v>
+      </c>
+      <c r="M59">
+        <v>-0.009218489470633378</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
       <c r="A60" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B60">
-        <v>-0.246323869314353</v>
+        <v>-0.2436660976955795</v>
       </c>
       <c r="C60">
-        <v>0.07061213504268768</v>
+        <v>0.1186167316106977</v>
       </c>
       <c r="D60">
-        <v>0.1001863023508085</v>
+        <v>0.066709868274911</v>
       </c>
       <c r="E60">
-        <v>0.02382565684002148</v>
+        <v>-0.05105726044924773</v>
       </c>
       <c r="F60">
-        <v>0.04995085065774729</v>
+        <v>-0.09307523638840731</v>
       </c>
       <c r="G60">
-        <v>-0.05623177087440019</v>
+        <v>0.0444469992332057</v>
       </c>
       <c r="H60">
-        <v>0.06191083882069045</v>
+        <v>-0.1038511506458269</v>
       </c>
       <c r="I60">
-        <v>-0.05019130970533957</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>-0.0129623497384781</v>
+      </c>
+      <c r="J60">
+        <v>-0.02015575813979483</v>
+      </c>
+      <c r="K60">
+        <v>-0.05635076725680294</v>
+      </c>
+      <c r="L60">
+        <v>0.2262117472881043</v>
+      </c>
+      <c r="M60">
+        <v>0.006484627601552556</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
       <c r="A61" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B61">
-        <v>-0.08389264117718867</v>
+        <v>-0.09026230638744417</v>
       </c>
       <c r="C61">
-        <v>0.06244420349674917</v>
+        <v>0.06476091971871137</v>
       </c>
       <c r="D61">
-        <v>0.0215017342110355</v>
+        <v>0.04137562674008028</v>
       </c>
       <c r="E61">
-        <v>0.004291777461167879</v>
+        <v>-0.008629864818535386</v>
       </c>
       <c r="F61">
-        <v>-0.01477701147416817</v>
+        <v>0.1122519560444091</v>
       </c>
       <c r="G61">
-        <v>0.00551295090974927</v>
+        <v>-0.08179147418973239</v>
       </c>
       <c r="H61">
-        <v>-0.03570706499375941</v>
+        <v>0.02164434207379104</v>
       </c>
       <c r="I61">
-        <v>0.07476027333068354</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>-0.05029451751463522</v>
+      </c>
+      <c r="J61">
+        <v>0.03954935716498043</v>
+      </c>
+      <c r="K61">
+        <v>0.07415111426059756</v>
+      </c>
+      <c r="L61">
+        <v>-0.04762620158086386</v>
+      </c>
+      <c r="M61">
+        <v>0.008121896077100605</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
       <c r="A62" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B62">
-        <v>-0.1689973086692137</v>
+        <v>-0.1435235023117943</v>
       </c>
       <c r="C62">
-        <v>0.06123608116224435</v>
+        <v>0.07717840869436313</v>
       </c>
       <c r="D62">
-        <v>0.01849957158831576</v>
+        <v>0.03508103495126837</v>
       </c>
       <c r="E62">
-        <v>-0.122732020078512</v>
+        <v>0.03382039572554849</v>
       </c>
       <c r="F62">
-        <v>-0.219556852106559</v>
+        <v>-0.03172010605486592</v>
       </c>
       <c r="G62">
-        <v>0.1100281514215806</v>
+        <v>-0.1618937939809916</v>
       </c>
       <c r="H62">
-        <v>-0.04002703937380121</v>
+        <v>0.06721870182810111</v>
       </c>
       <c r="I62">
-        <v>-0.02870934739625099</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>0.1266495414541698</v>
+      </c>
+      <c r="J62">
+        <v>-0.1208669468786953</v>
+      </c>
+      <c r="K62">
+        <v>-0.08377904737809225</v>
+      </c>
+      <c r="L62">
+        <v>0.0252554337087229</v>
+      </c>
+      <c r="M62">
+        <v>0.06011764828203045</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
       <c r="A63" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B63">
-        <v>-0.04455559276324973</v>
+        <v>-0.04512597645059695</v>
       </c>
       <c r="C63">
-        <v>0.04166582450483381</v>
+        <v>0.02740526478860401</v>
       </c>
       <c r="D63">
-        <v>0.01559740756515806</v>
+        <v>0.004989242827056986</v>
       </c>
       <c r="E63">
-        <v>0.007074598819168498</v>
+        <v>0.01383765236651385</v>
       </c>
       <c r="F63">
-        <v>-0.019519646952449</v>
+        <v>0.05907884807609626</v>
       </c>
       <c r="G63">
-        <v>0.03958507557993195</v>
+        <v>-0.01043047533569158</v>
       </c>
       <c r="H63">
-        <v>0.05246948708028663</v>
+        <v>0.03105903067815253</v>
       </c>
       <c r="I63">
-        <v>0.01137364560417311</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>-0.04983468746060393</v>
+      </c>
+      <c r="J63">
+        <v>-4.91202013681151e-05</v>
+      </c>
+      <c r="K63">
+        <v>-0.03085483064892462</v>
+      </c>
+      <c r="L63">
+        <v>-0.01998473523699629</v>
+      </c>
+      <c r="M63">
+        <v>0.009673271332654786</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
       <c r="A64" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B64">
-        <v>-0.1023384935563939</v>
+        <v>-0.1010268478365285</v>
       </c>
       <c r="C64">
-        <v>0.03482332280551692</v>
+        <v>0.04934598931021493</v>
       </c>
       <c r="D64">
-        <v>0.03319558970743646</v>
+        <v>-0.007358992595831068</v>
       </c>
       <c r="E64">
-        <v>0.0388845003756744</v>
+        <v>-0.03348771821764485</v>
       </c>
       <c r="F64">
-        <v>0.01065989775895881</v>
+        <v>0.06334759727733918</v>
       </c>
       <c r="G64">
-        <v>0.0008417201885210978</v>
+        <v>-0.01962336354492081</v>
       </c>
       <c r="H64">
-        <v>-0.008057578012854947</v>
+        <v>-0.009743553868425859</v>
       </c>
       <c r="I64">
-        <v>0.08458681397760774</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>-0.08085841211324672</v>
+      </c>
+      <c r="J64">
+        <v>0.007824276382957825</v>
+      </c>
+      <c r="K64">
+        <v>0.01289242547466642</v>
+      </c>
+      <c r="L64">
+        <v>-0.04225753729168427</v>
+      </c>
+      <c r="M64">
+        <v>0.03491694161553464</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
       <c r="A65" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B65">
-        <v>-0.1296551289770971</v>
+        <v>-0.1258518258236223</v>
       </c>
       <c r="C65">
-        <v>0.05955019343909507</v>
+        <v>0.04765009017275901</v>
       </c>
       <c r="D65">
-        <v>0.05184533588254044</v>
+        <v>0.005408657226496221</v>
       </c>
       <c r="E65">
-        <v>0.1329227013442461</v>
+        <v>-0.007268385849214174</v>
       </c>
       <c r="F65">
-        <v>0.1338673563331555</v>
+        <v>0.06698296485095656</v>
       </c>
       <c r="G65">
-        <v>0.01536147899937411</v>
+        <v>0.1827910696176429</v>
       </c>
       <c r="H65">
-        <v>0.5513135512355254</v>
+        <v>-0.0678832988084431</v>
       </c>
       <c r="I65">
-        <v>-0.39530104846305</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>-0.2275837815322162</v>
+      </c>
+      <c r="J65">
+        <v>-0.04853391817094915</v>
+      </c>
+      <c r="K65">
+        <v>-0.5940358308258162</v>
+      </c>
+      <c r="L65">
+        <v>0.2341939968315888</v>
+      </c>
+      <c r="M65">
+        <v>0.01830034009146602</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
       <c r="A66" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B66">
-        <v>-0.1573901725610677</v>
+        <v>-0.1253594771664348</v>
       </c>
       <c r="C66">
-        <v>0.156540529049491</v>
+        <v>0.1331312409928547</v>
       </c>
       <c r="D66">
-        <v>0.04121210724095936</v>
+        <v>0.102537880503814</v>
       </c>
       <c r="E66">
-        <v>-0.02218124870875661</v>
+        <v>0.03329585491680337</v>
       </c>
       <c r="F66">
-        <v>-0.0794331537435083</v>
+        <v>0.1629212889447054</v>
       </c>
       <c r="G66">
-        <v>-0.07402796096363709</v>
+        <v>-0.09795104424943223</v>
       </c>
       <c r="H66">
-        <v>-0.1229992451047505</v>
+        <v>-0.00118318713639781</v>
       </c>
       <c r="I66">
-        <v>0.3095635024239892</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>-0.1078233611808174</v>
+      </c>
+      <c r="J66">
+        <v>0.06908376913560292</v>
+      </c>
+      <c r="K66">
+        <v>0.2420107323373396</v>
+      </c>
+      <c r="L66">
+        <v>-0.03966490511178698</v>
+      </c>
+      <c r="M66">
+        <v>0.04136284925037977</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
       <c r="A67" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B67">
-        <v>-0.07545804082633253</v>
+        <v>-0.081332671014978</v>
       </c>
       <c r="C67">
-        <v>0.05114524372914805</v>
+        <v>0.06179719573326781</v>
       </c>
       <c r="D67">
-        <v>0.005684042147333437</v>
+        <v>-0.01395286012672323</v>
       </c>
       <c r="E67">
-        <v>0.001125507999871403</v>
+        <v>-0.01920790691716097</v>
       </c>
       <c r="F67">
-        <v>-0.0004980310486356312</v>
+        <v>-0.03634696785452501</v>
       </c>
       <c r="G67">
-        <v>-0.01997616229269834</v>
+        <v>-0.08570291711417942</v>
       </c>
       <c r="H67">
-        <v>-0.05457880848543136</v>
+        <v>-0.08455567815977685</v>
       </c>
       <c r="I67">
-        <v>0.02468493605127453</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>0.04209476963422594</v>
+      </c>
+      <c r="J67">
+        <v>-0.09938317528355291</v>
+      </c>
+      <c r="K67">
+        <v>0.05792856346633505</v>
+      </c>
+      <c r="L67">
+        <v>-0.05259818095449571</v>
+      </c>
+      <c r="M67">
+        <v>0.02124755392474284</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
       <c r="A68" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B68">
-        <v>-0.1065180319898876</v>
+        <v>-0.1232023345698135</v>
       </c>
       <c r="C68">
-        <v>-0.2710638980121885</v>
+        <v>-0.2744384875699385</v>
       </c>
       <c r="D68">
-        <v>-0.004429294048798342</v>
+        <v>0.002765525217093891</v>
       </c>
       <c r="E68">
-        <v>0.01937118688603953</v>
+        <v>-0.002106825613567158</v>
       </c>
       <c r="F68">
-        <v>-0.006636925053345419</v>
+        <v>0.0232381584372233</v>
       </c>
       <c r="G68">
-        <v>0.05377172804641681</v>
+        <v>-0.03174815173798861</v>
       </c>
       <c r="H68">
-        <v>0.006490264084249083</v>
+        <v>0.01657784750829928</v>
       </c>
       <c r="I68">
-        <v>-0.01602226081036049</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>-0.04589956232909333</v>
+      </c>
+      <c r="J68">
+        <v>0.003578180161221371</v>
+      </c>
+      <c r="K68">
+        <v>-0.05678419385551745</v>
+      </c>
+      <c r="L68">
+        <v>-0.005992605333227713</v>
+      </c>
+      <c r="M68">
+        <v>0.03436620792330044</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
       <c r="A69" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B69">
-        <v>-0.03983629239427579</v>
+        <v>-0.04239604257317475</v>
       </c>
       <c r="C69">
-        <v>0.03011280687518403</v>
+        <v>0.02261187738934822</v>
       </c>
       <c r="D69">
-        <v>0.004625513593958566</v>
+        <v>-0.01114451835487862</v>
       </c>
       <c r="E69">
-        <v>0.01146124841882452</v>
+        <v>0.006258569688687892</v>
       </c>
       <c r="F69">
-        <v>-0.04647838261555657</v>
+        <v>0.01231678872092117</v>
       </c>
       <c r="G69">
-        <v>-0.004419312089928239</v>
+        <v>-0.03927057958571884</v>
       </c>
       <c r="H69">
-        <v>-0.01307243427557056</v>
+        <v>-0.005182017054346075</v>
       </c>
       <c r="I69">
-        <v>-0.03541161381320887</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>0.004617495441888274</v>
+      </c>
+      <c r="J69">
+        <v>-0.03019119039611617</v>
+      </c>
+      <c r="K69">
+        <v>-0.001969913584637379</v>
+      </c>
+      <c r="L69">
+        <v>0.001092580299479027</v>
+      </c>
+      <c r="M69">
+        <v>-0.06760656204851195</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
       <c r="A70" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B70">
-        <v>-0.04364117289588834</v>
+        <v>-0.05087147702991826</v>
       </c>
       <c r="C70">
-        <v>0.0004345236118705249</v>
+        <v>0.03417129006572669</v>
       </c>
       <c r="D70">
-        <v>0.03444190416018874</v>
+        <v>0.02137969836440815</v>
       </c>
       <c r="E70">
-        <v>-0.02471180590432068</v>
+        <v>-0.01507884637531287</v>
       </c>
       <c r="F70">
-        <v>0.1048220257152546</v>
+        <v>-0.001911161832041958</v>
       </c>
       <c r="G70">
-        <v>-0.06388531610988184</v>
+        <v>0.06310288907714708</v>
       </c>
       <c r="H70">
-        <v>-0.02692216363520964</v>
+        <v>0.006662513465335941</v>
       </c>
       <c r="I70">
-        <v>-0.0215670312886047</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>0.06790773068970692</v>
+      </c>
+      <c r="J70">
+        <v>-0.108619813457554</v>
+      </c>
+      <c r="K70">
+        <v>-0.09913350035452258</v>
+      </c>
+      <c r="L70">
+        <v>-0.2816368263749869</v>
+      </c>
+      <c r="M70">
+        <v>-0.2067905310812658</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
       <c r="A71" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B71">
-        <v>-0.109005605508177</v>
+        <v>-0.1361555306212503</v>
       </c>
       <c r="C71">
-        <v>-0.2791326298127314</v>
+        <v>-0.2822225305011611</v>
       </c>
       <c r="D71">
-        <v>0.02406727868415972</v>
+        <v>0.006212042953607005</v>
       </c>
       <c r="E71">
-        <v>0.00677203839228631</v>
+        <v>-0.02063028659257408</v>
       </c>
       <c r="F71">
-        <v>0.01822577195538004</v>
+        <v>0.02637009816025056</v>
       </c>
       <c r="G71">
-        <v>0.03608440294824763</v>
+        <v>-0.03400347673354693</v>
       </c>
       <c r="H71">
-        <v>2.520588047594111e-06</v>
+        <v>0.01318128312808264</v>
       </c>
       <c r="I71">
-        <v>0.02897761479645486</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>-0.04817250222807053</v>
+      </c>
+      <c r="J71">
+        <v>-0.003342876778229373</v>
+      </c>
+      <c r="K71">
+        <v>-0.008064670715089576</v>
+      </c>
+      <c r="L71">
+        <v>-0.002158962620362131</v>
+      </c>
+      <c r="M71">
+        <v>0.01674600250877634</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
       <c r="A72" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B72">
-        <v>-0.1833842780443695</v>
+        <v>-0.1447437800830849</v>
       </c>
       <c r="C72">
-        <v>0.04912162033733189</v>
+        <v>0.03465749255838217</v>
       </c>
       <c r="D72">
-        <v>-0.2346589208673747</v>
+        <v>-0.002817157535231847</v>
       </c>
       <c r="E72">
-        <v>-0.02477160181157343</v>
+        <v>0.1838656072558108</v>
       </c>
       <c r="F72">
-        <v>-0.07572280168222363</v>
+        <v>0.05115705826741872</v>
       </c>
       <c r="G72">
-        <v>-0.05999905538566035</v>
+        <v>-0.006773302894263956</v>
       </c>
       <c r="H72">
-        <v>0.127298348198388</v>
+        <v>-0.05999036481519616</v>
       </c>
       <c r="I72">
-        <v>-0.06179219062487105</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>0.02183480615437563</v>
+      </c>
+      <c r="J72">
+        <v>-0.05368087288994446</v>
+      </c>
+      <c r="K72">
+        <v>-0.1144448050921002</v>
+      </c>
+      <c r="L72">
+        <v>0.1168384488339747</v>
+      </c>
+      <c r="M72">
+        <v>0.02333728883156484</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
       <c r="A73" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B73">
-        <v>-0.2658348779078145</v>
+        <v>-0.2416487178319607</v>
       </c>
       <c r="C73">
-        <v>0.1886987812845806</v>
+        <v>0.1569873775351059</v>
       </c>
       <c r="D73">
-        <v>0.1382452862910238</v>
+        <v>0.1657075141515123</v>
       </c>
       <c r="E73">
-        <v>-0.0517040124311288</v>
+        <v>-0.1040855509317468</v>
       </c>
       <c r="F73">
-        <v>0.1954808302475576</v>
+        <v>-0.4069035526359836</v>
       </c>
       <c r="G73">
-        <v>-0.02596817715415866</v>
+        <v>0.1245766806212578</v>
       </c>
       <c r="H73">
-        <v>0.2083052338725552</v>
+        <v>-0.2404912012998053</v>
       </c>
       <c r="I73">
-        <v>0.0793567789460756</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>-0.2939538448637284</v>
+      </c>
+      <c r="J73">
+        <v>-0.0181738370042282</v>
+      </c>
+      <c r="K73">
+        <v>0.2929954165475861</v>
+      </c>
+      <c r="L73">
+        <v>0.2520087313039314</v>
+      </c>
+      <c r="M73">
+        <v>0.1216367104598724</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
       <c r="A74" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B74">
-        <v>-0.09286843962103024</v>
+        <v>-0.09036076851687178</v>
       </c>
       <c r="C74">
-        <v>0.03268851760694066</v>
+        <v>0.06895178588685795</v>
       </c>
       <c r="D74">
-        <v>0.01931999200574869</v>
+        <v>0.01247278650159674</v>
       </c>
       <c r="E74">
-        <v>-0.02852698502196009</v>
+        <v>0.009356673593565458</v>
       </c>
       <c r="F74">
-        <v>-0.08628735265256467</v>
+        <v>-0.03914657225229726</v>
       </c>
       <c r="G74">
-        <v>0.1539201220808825</v>
+        <v>-0.1496755445026385</v>
       </c>
       <c r="H74">
-        <v>0.03504343321206789</v>
+        <v>0.02697714956597022</v>
       </c>
       <c r="I74">
-        <v>-0.01286696413044194</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>-2.274952461641157e-05</v>
+      </c>
+      <c r="J74">
+        <v>-0.04413813053186205</v>
+      </c>
+      <c r="K74">
+        <v>-0.005619584013478975</v>
+      </c>
+      <c r="L74">
+        <v>0.03585832690894142</v>
+      </c>
+      <c r="M74">
+        <v>0.04810630164591853</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13">
       <c r="A75" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B75">
-        <v>-0.09982455848494705</v>
+        <v>-0.09166711600600187</v>
       </c>
       <c r="C75">
-        <v>0.01682626923267072</v>
+        <v>0.05012729542258142</v>
       </c>
       <c r="D75">
-        <v>0.02560212686828667</v>
+        <v>0.00870276074977263</v>
       </c>
       <c r="E75">
-        <v>-0.03084162164383854</v>
+        <v>0.01043268993404617</v>
       </c>
       <c r="F75">
-        <v>-0.08665281511555803</v>
+        <v>-0.01629956784591558</v>
       </c>
       <c r="G75">
-        <v>0.05061862125715486</v>
+        <v>-0.09744484508044825</v>
       </c>
       <c r="H75">
-        <v>-0.0431981666439302</v>
+        <v>0.02373899722294038</v>
       </c>
       <c r="I75">
-        <v>-0.1179887571672126</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>0.09459083667004578</v>
+      </c>
+      <c r="J75">
+        <v>-0.01210793977851732</v>
+      </c>
+      <c r="K75">
+        <v>-0.03629177843701694</v>
+      </c>
+      <c r="L75">
+        <v>0.0317560704687936</v>
+      </c>
+      <c r="M75">
+        <v>-0.05807889563597866</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
       <c r="A76" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B76">
-        <v>-0.1294082877001009</v>
+        <v>-0.09608027998587657</v>
       </c>
       <c r="C76">
-        <v>0.03507342387170803</v>
+        <v>0.06787735720184274</v>
       </c>
       <c r="D76">
-        <v>0.01651181133945078</v>
+        <v>0.004499385707188331</v>
       </c>
       <c r="E76">
-        <v>-0.01338221910449821</v>
+        <v>-0.007796527858156909</v>
       </c>
       <c r="F76">
-        <v>-0.1784538626397453</v>
+        <v>-0.05313825718055805</v>
       </c>
       <c r="G76">
-        <v>0.1718364842471529</v>
+        <v>-0.193845136124272</v>
       </c>
       <c r="H76">
-        <v>-0.01769387646206355</v>
+        <v>0.05440510207123741</v>
       </c>
       <c r="I76">
-        <v>-0.09370260184447601</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>0.09876871672225668</v>
+      </c>
+      <c r="J76">
+        <v>-0.03025749351925116</v>
+      </c>
+      <c r="K76">
+        <v>-0.0538880614509724</v>
+      </c>
+      <c r="L76">
+        <v>0.0429255300635748</v>
+      </c>
+      <c r="M76">
+        <v>0.1309325980908179</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
       <c r="A77" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B77">
-        <v>-0.08292649894344699</v>
+        <v>-0.07472308263451923</v>
       </c>
       <c r="C77">
-        <v>0.03200674012271155</v>
+        <v>0.01785195982993064</v>
       </c>
       <c r="D77">
-        <v>-0.02634177533897164</v>
+        <v>0.001388363600741748</v>
       </c>
       <c r="E77">
-        <v>0.3433485241221395</v>
+        <v>-0.04661933936337396</v>
       </c>
       <c r="F77">
-        <v>-0.4287104438349598</v>
+        <v>0.4546323750983822</v>
       </c>
       <c r="G77">
-        <v>-0.6566360934219004</v>
+        <v>0.1672784257725494</v>
       </c>
       <c r="H77">
-        <v>0.0557102675757498</v>
+        <v>-0.6689842990736775</v>
       </c>
       <c r="I77">
-        <v>0.0450583975228636</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>0.2908784522435276</v>
+      </c>
+      <c r="J77">
+        <v>-0.1610516687398133</v>
+      </c>
+      <c r="K77">
+        <v>0.1061499667610805</v>
+      </c>
+      <c r="L77">
+        <v>0.04718248414074306</v>
+      </c>
+      <c r="M77">
+        <v>0.1187806444966313</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13">
       <c r="A78" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B78">
-        <v>-0.1361115307022997</v>
+        <v>-0.169080284156387</v>
       </c>
       <c r="C78">
-        <v>0.1030230963709501</v>
+        <v>0.1237834873884087</v>
       </c>
       <c r="D78">
-        <v>0.0245164130025448</v>
+        <v>-0.1760099029713628</v>
       </c>
       <c r="E78">
-        <v>0.1494997081724659</v>
+        <v>-0.1054236434965998</v>
       </c>
       <c r="F78">
-        <v>0.06214423732539475</v>
+        <v>0.1280846968751854</v>
       </c>
       <c r="G78">
-        <v>0.01113760668245874</v>
+        <v>0.2892510630782443</v>
       </c>
       <c r="H78">
-        <v>-0.07846065661520721</v>
+        <v>0.2436449193488854</v>
       </c>
       <c r="I78">
-        <v>0.07350688267259826</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>0.4084154844856266</v>
+      </c>
+      <c r="J78">
+        <v>0.6002185359128456</v>
+      </c>
+      <c r="K78">
+        <v>0.04526788813664838</v>
+      </c>
+      <c r="L78">
+        <v>0.2571863302490144</v>
+      </c>
+      <c r="M78">
+        <v>0.0844516911598132</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13">
       <c r="A79" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B79">
-        <v>-0.1437108944547616</v>
+        <v>-0.1344620675243071</v>
       </c>
       <c r="C79">
-        <v>0.05514550298840296</v>
+        <v>0.07410619969590705</v>
       </c>
       <c r="D79">
-        <v>0.03098193336573103</v>
+        <v>0.004745882506138866</v>
       </c>
       <c r="E79">
-        <v>-0.05219523572406617</v>
+        <v>-0.0009283416533593107</v>
       </c>
       <c r="F79">
-        <v>-0.1342716664764896</v>
+        <v>-0.004256070534527715</v>
       </c>
       <c r="G79">
-        <v>0.08402575430380885</v>
+        <v>-0.1533768570515609</v>
       </c>
       <c r="H79">
-        <v>-0.05168166578270151</v>
+        <v>0.03515427137418482</v>
       </c>
       <c r="I79">
-        <v>-0.09607143966694967</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>0.08702070992346564</v>
+      </c>
+      <c r="J79">
+        <v>-0.0825520407243277</v>
+      </c>
+      <c r="K79">
+        <v>-0.05845259417999525</v>
+      </c>
+      <c r="L79">
+        <v>0.04166040183591609</v>
+      </c>
+      <c r="M79">
+        <v>0.01234483906484686</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
       <c r="A80" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B80">
-        <v>-0.02581311810335789</v>
+        <v>-0.05522773358891817</v>
       </c>
       <c r="C80">
-        <v>-0.003658852814845614</v>
+        <v>0.02232022351090593</v>
       </c>
       <c r="D80">
-        <v>0.008187203414017727</v>
+        <v>0.06332178351610243</v>
       </c>
       <c r="E80">
-        <v>-0.0296799445777937</v>
+        <v>-0.008305172590378763</v>
       </c>
       <c r="F80">
-        <v>0.003626858898083305</v>
+        <v>0.009981121219982075</v>
       </c>
       <c r="G80">
-        <v>-0.0005851520981571779</v>
+        <v>0.02148071648706494</v>
       </c>
       <c r="H80">
-        <v>0.09213963756158054</v>
+        <v>0.08571141402286478</v>
       </c>
       <c r="I80">
-        <v>0.02255360321381861</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>-0.1262212017680268</v>
+      </c>
+      <c r="J80">
+        <v>0.05153213290069288</v>
+      </c>
+      <c r="K80">
+        <v>-0.0349794518758094</v>
+      </c>
+      <c r="L80">
+        <v>-0.07864229745777725</v>
+      </c>
+      <c r="M80">
+        <v>0.02340648118757708</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13">
       <c r="A81" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B81">
-        <v>-0.1141921983245849</v>
+        <v>-0.1198461639342657</v>
       </c>
       <c r="C81">
-        <v>0.05065604672653555</v>
+        <v>0.0516981574595699</v>
       </c>
       <c r="D81">
-        <v>0.03706984261961996</v>
+        <v>0.001899503526058641</v>
       </c>
       <c r="E81">
-        <v>-0.04224504561396106</v>
+        <v>-0.004118215407200543</v>
       </c>
       <c r="F81">
-        <v>-0.07635634822797184</v>
+        <v>0.01285134363544839</v>
       </c>
       <c r="G81">
-        <v>0.05775459582789429</v>
+        <v>-0.133575383074672</v>
       </c>
       <c r="H81">
-        <v>-0.01568355150185522</v>
+        <v>0.06359176834737648</v>
       </c>
       <c r="I81">
-        <v>-0.04029070218130729</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>0.06973949466982376</v>
+      </c>
+      <c r="J81">
+        <v>-0.04233088597600806</v>
+      </c>
+      <c r="K81">
+        <v>0.006145405567453221</v>
+      </c>
+      <c r="L81">
+        <v>0.02735069155293298</v>
+      </c>
+      <c r="M81">
+        <v>-0.0595196810282267</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13">
       <c r="A82" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B82">
-        <v>-0.1101070530354166</v>
+        <v>-0.1172867181205041</v>
       </c>
       <c r="C82">
-        <v>0.03282602554688828</v>
+        <v>0.05139237151914317</v>
       </c>
       <c r="D82">
-        <v>0.06397735499091635</v>
+        <v>0.02575328123939339</v>
       </c>
       <c r="E82">
-        <v>-0.09418323817537622</v>
+        <v>0.005264170023168199</v>
       </c>
       <c r="F82">
-        <v>-0.2057405263397621</v>
+        <v>-0.0437414200665517</v>
       </c>
       <c r="G82">
-        <v>0.1552776615126895</v>
+        <v>-0.2286916159431227</v>
       </c>
       <c r="H82">
-        <v>-0.06870104979086245</v>
+        <v>0.06957592819340626</v>
       </c>
       <c r="I82">
-        <v>-0.06662099296891405</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>0.1033078976809893</v>
+      </c>
+      <c r="J82">
+        <v>-0.07272823478043511</v>
+      </c>
+      <c r="K82">
+        <v>-0.006521734901757361</v>
+      </c>
+      <c r="L82">
+        <v>-0.04640539647320244</v>
+      </c>
+      <c r="M82">
+        <v>0.01493079199360471</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13">
       <c r="A83" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B83">
-        <v>-0.05880549453490474</v>
+        <v>-0.07473378427499747</v>
       </c>
       <c r="C83">
-        <v>0.03848296988712748</v>
+        <v>0.06291483243041926</v>
       </c>
       <c r="D83">
-        <v>0.0329574300013214</v>
+        <v>0.01152399078248962</v>
       </c>
       <c r="E83">
-        <v>-0.01878789586516563</v>
+        <v>-0.0008218089681759402</v>
       </c>
       <c r="F83">
-        <v>0.04874404402202707</v>
+        <v>-0.006649469209629126</v>
       </c>
       <c r="G83">
-        <v>-0.08255962311577625</v>
+        <v>-0.03464525451293965</v>
       </c>
       <c r="H83">
-        <v>-0.07151683930080185</v>
+        <v>-0.04442764897072089</v>
       </c>
       <c r="I83">
-        <v>0.03157578976866227</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>-0.03920313775002046</v>
+      </c>
+      <c r="J83">
+        <v>0.03170660372016853</v>
+      </c>
+      <c r="K83">
+        <v>0.007242696171834271</v>
+      </c>
+      <c r="L83">
+        <v>-0.1508387306595415</v>
+      </c>
+      <c r="M83">
+        <v>-0.04105240651018966</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13">
       <c r="A84" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B84">
-        <v>-0.0477568920765884</v>
+        <v>-0.0475278323121515</v>
       </c>
       <c r="C84">
-        <v>0.03513201312155585</v>
+        <v>-0.02019534067763766</v>
       </c>
       <c r="D84">
-        <v>-0.04396614957693597</v>
+        <v>0.007063958715475779</v>
       </c>
       <c r="E84">
-        <v>-0.02038812938765898</v>
+        <v>0.0223993452454343</v>
       </c>
       <c r="F84">
-        <v>0.06090228486731668</v>
+        <v>-1.788760874938518e-05</v>
       </c>
       <c r="G84">
-        <v>0.1116944350069178</v>
+        <v>0.2144066634784332</v>
       </c>
       <c r="H84">
-        <v>-0.01802540709589718</v>
+        <v>0.1841810610636578</v>
       </c>
       <c r="I84">
-        <v>0.03375185978930598</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>-0.07986526247538668</v>
+      </c>
+      <c r="J84">
+        <v>-0.03781853866554478</v>
+      </c>
+      <c r="K84">
+        <v>0.1235195766694679</v>
+      </c>
+      <c r="L84">
+        <v>-0.1805695008134528</v>
+      </c>
+      <c r="M84">
+        <v>0.5991719111329011</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13">
       <c r="A85" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B85">
-        <v>-0.08149804119037897</v>
+        <v>-0.1092955672903547</v>
       </c>
       <c r="C85">
-        <v>0.04412583563302438</v>
+        <v>0.0525511977828052</v>
       </c>
       <c r="D85">
-        <v>0.05268612179872647</v>
+        <v>0.01471008652277078</v>
       </c>
       <c r="E85">
-        <v>-0.02074626244361032</v>
+        <v>-0.03037302996400933</v>
       </c>
       <c r="F85">
-        <v>-0.160016145455522</v>
+        <v>0.002323929027567632</v>
       </c>
       <c r="G85">
-        <v>0.1074248987594421</v>
+        <v>-0.1609576457313237</v>
       </c>
       <c r="H85">
-        <v>0.002581740836005371</v>
+        <v>0.04503119168018959</v>
       </c>
       <c r="I85">
-        <v>-0.05655934704769208</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>0.07694104959119182</v>
+      </c>
+      <c r="J85">
+        <v>-0.07876740427022676</v>
+      </c>
+      <c r="K85">
+        <v>-0.04927738100096166</v>
+      </c>
+      <c r="L85">
+        <v>0.06311914332289249</v>
+      </c>
+      <c r="M85">
+        <v>0.003522038569254296</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13">
       <c r="A86" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B86">
-        <v>-0.03475678964511236</v>
+        <v>-0.07127542506810326</v>
       </c>
       <c r="C86">
-        <v>0.04421646820221403</v>
+        <v>0.02121254365264027</v>
       </c>
       <c r="D86">
-        <v>-0.009386360489190993</v>
+        <v>-0.009909734350633279</v>
       </c>
       <c r="E86">
-        <v>0.03032223755272315</v>
+        <v>-0.0931769223037424</v>
       </c>
       <c r="F86">
-        <v>0.01329191402984965</v>
+        <v>0.04115264087902357</v>
       </c>
       <c r="G86">
-        <v>-0.07288750141992517</v>
+        <v>0.4286004029406286</v>
       </c>
       <c r="H86">
-        <v>0.135398510314215</v>
+        <v>0.4307661354666476</v>
       </c>
       <c r="I86">
-        <v>-0.03199914357220419</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>0.1615602336600449</v>
+      </c>
+      <c r="J86">
+        <v>-0.5627644883582834</v>
+      </c>
+      <c r="K86">
+        <v>0.1695653875666852</v>
+      </c>
+      <c r="L86">
+        <v>0.1303152351829072</v>
+      </c>
+      <c r="M86">
+        <v>-0.0388405129696013</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13">
       <c r="A87" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B87">
-        <v>-0.09213193107148111</v>
+        <v>-0.1096262991977661</v>
       </c>
       <c r="C87">
-        <v>0.07153727043124317</v>
+        <v>0.06624646049910911</v>
       </c>
       <c r="D87">
-        <v>0.007869531436105007</v>
+        <v>-0.04102031739753906</v>
       </c>
       <c r="E87">
-        <v>0.1437002417071132</v>
+        <v>-0.03039206812464373</v>
       </c>
       <c r="F87">
-        <v>-0.08501703938616505</v>
+        <v>0.1538717136556247</v>
       </c>
       <c r="G87">
-        <v>-0.1414325364447484</v>
+        <v>0.08859268955759628</v>
       </c>
       <c r="H87">
-        <v>-0.01316904895471186</v>
+        <v>-0.1479641806380892</v>
       </c>
       <c r="I87">
-        <v>0.07927197265689445</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>0.002598121732940906</v>
+      </c>
+      <c r="J87">
+        <v>-0.05337279375198611</v>
+      </c>
+      <c r="K87">
+        <v>0.01980622180959078</v>
+      </c>
+      <c r="L87">
+        <v>-0.1253911746817178</v>
+      </c>
+      <c r="M87">
+        <v>0.04478997922058928</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13">
       <c r="A88" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B88">
-        <v>-0.04712893564613456</v>
+        <v>-0.05543604616211849</v>
       </c>
       <c r="C88">
-        <v>0.04133841278403089</v>
+        <v>0.05229961503197898</v>
       </c>
       <c r="D88">
-        <v>0.0205718209205982</v>
+        <v>0.0271045461776932</v>
       </c>
       <c r="E88">
-        <v>0.003430569491986348</v>
+        <v>-0.01299489674698143</v>
       </c>
       <c r="F88">
-        <v>0.002589069535320745</v>
+        <v>0.03130152976083055</v>
       </c>
       <c r="G88">
-        <v>-0.01238568950346336</v>
+        <v>-0.03394741586469961</v>
       </c>
       <c r="H88">
-        <v>-0.004337481863756584</v>
+        <v>0.02208917384480284</v>
       </c>
       <c r="I88">
-        <v>0.04413019824514717</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>-0.04358325557015795</v>
+      </c>
+      <c r="J88">
+        <v>0.001778498045683162</v>
+      </c>
+      <c r="K88">
+        <v>0.024087258004806</v>
+      </c>
+      <c r="L88">
+        <v>-0.02427611946430948</v>
+      </c>
+      <c r="M88">
+        <v>-0.0283973959278682</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13">
       <c r="A89" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B89">
-        <v>-0.1796992930878392</v>
+        <v>-0.2171719057933296</v>
       </c>
       <c r="C89">
-        <v>-0.3139621473283489</v>
+        <v>-0.3563791248723771</v>
       </c>
       <c r="D89">
-        <v>0.06576652493123837</v>
+        <v>-0.0476094309363345</v>
       </c>
       <c r="E89">
-        <v>0.09687239796328566</v>
+        <v>-0.07958460719010531</v>
       </c>
       <c r="F89">
-        <v>0.03747742956380509</v>
+        <v>0.01239953441975589</v>
       </c>
       <c r="G89">
-        <v>0.001228442750982068</v>
+        <v>-0.01035517913274903</v>
       </c>
       <c r="H89">
-        <v>-0.01370852854480864</v>
+        <v>0.02987379753590653</v>
       </c>
       <c r="I89">
-        <v>-0.002764716204549172</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>-0.02057953504385829</v>
+      </c>
+      <c r="J89">
+        <v>0.04396054131112356</v>
+      </c>
+      <c r="K89">
+        <v>0.06711378543246599</v>
+      </c>
+      <c r="L89">
+        <v>-0.02293809975434258</v>
+      </c>
+      <c r="M89">
+        <v>-0.1057609000391886</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13">
       <c r="A90" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B90">
-        <v>-0.1317222377793991</v>
+        <v>-0.1491255760046075</v>
       </c>
       <c r="C90">
-        <v>-0.2708347106592839</v>
+        <v>-0.2695910644222271</v>
       </c>
       <c r="D90">
-        <v>0.001491924559365455</v>
+        <v>0.006071926657797829</v>
       </c>
       <c r="E90">
-        <v>0.06109223639936782</v>
+        <v>-0.02028073847051791</v>
       </c>
       <c r="F90">
-        <v>0.01059765185046472</v>
+        <v>0.03026865427223564</v>
       </c>
       <c r="G90">
-        <v>-0.04479533747691593</v>
+        <v>0.00197645320426426</v>
       </c>
       <c r="H90">
-        <v>0.01414274282649164</v>
+        <v>-0.02136615466638794</v>
       </c>
       <c r="I90">
-        <v>0.1283830774126276</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>-0.0636556966372395</v>
+      </c>
+      <c r="J90">
+        <v>0.01054136383427687</v>
+      </c>
+      <c r="K90">
+        <v>0.02775624099177154</v>
+      </c>
+      <c r="L90">
+        <v>0.0002014247411951152</v>
+      </c>
+      <c r="M90">
+        <v>0.03860540226254959</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13">
       <c r="A91" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B91">
-        <v>-0.081228898126276</v>
+        <v>-0.07743645357194062</v>
       </c>
       <c r="C91">
-        <v>0.02558653447118663</v>
+        <v>0.04948052821454652</v>
       </c>
       <c r="D91">
-        <v>0.01193356171607268</v>
+        <v>-0.009386162497009512</v>
       </c>
       <c r="E91">
-        <v>0.01199459437419964</v>
+        <v>-0.007698761529561995</v>
       </c>
       <c r="F91">
-        <v>-0.06595067011305497</v>
+        <v>-0.01966288707666914</v>
       </c>
       <c r="G91">
-        <v>0.08212255577891488</v>
+        <v>-0.08029807701238414</v>
       </c>
       <c r="H91">
-        <v>-0.02484161887448839</v>
+        <v>0.0261323388935352</v>
       </c>
       <c r="I91">
-        <v>-0.05702844318098196</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>0.06453151915317769</v>
+      </c>
+      <c r="J91">
+        <v>-0.01288756125886571</v>
+      </c>
+      <c r="K91">
+        <v>0.002027512264101813</v>
+      </c>
+      <c r="L91">
+        <v>0.03472521296764089</v>
+      </c>
+      <c r="M91">
+        <v>0.01177411328557086</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13">
       <c r="A92" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B92">
-        <v>-0.1509046149788297</v>
+        <v>-0.1648494827475</v>
       </c>
       <c r="C92">
-        <v>-0.2949222823687376</v>
+        <v>-0.3003908464335389</v>
       </c>
       <c r="D92">
-        <v>0.0447513992941331</v>
+        <v>-0.03406966255604426</v>
       </c>
       <c r="E92">
-        <v>0.03339652899012795</v>
+        <v>-0.0438234698868341</v>
       </c>
       <c r="F92">
-        <v>0.06284197821102445</v>
+        <v>0.01821982046828295</v>
       </c>
       <c r="G92">
-        <v>0.05719186168335676</v>
+        <v>-0.0337969982311952</v>
       </c>
       <c r="H92">
-        <v>-0.01224238898541305</v>
+        <v>0.01916591951443807</v>
       </c>
       <c r="I92">
-        <v>-0.003726442662241211</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>-0.01941015638865927</v>
+      </c>
+      <c r="J92">
+        <v>0.03981960680532099</v>
+      </c>
+      <c r="K92">
+        <v>0.008171429336963512</v>
+      </c>
+      <c r="L92">
+        <v>0.0003242876390308454</v>
+      </c>
+      <c r="M92">
+        <v>-0.05405628377507617</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13">
       <c r="A93" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B93">
-        <v>-0.1439162377753528</v>
+        <v>-0.1638840673397813</v>
       </c>
       <c r="C93">
-        <v>-0.2447292483052463</v>
+        <v>-0.2874506035149918</v>
       </c>
       <c r="D93">
-        <v>0.01994920749862619</v>
+        <v>0.02610214921345046</v>
       </c>
       <c r="E93">
-        <v>0.02926605636738902</v>
+        <v>-0.01162364941561118</v>
       </c>
       <c r="F93">
-        <v>0.03455455397545178</v>
+        <v>0.01008886996823019</v>
       </c>
       <c r="G93">
-        <v>-0.02307354417583253</v>
+        <v>0.01174454435997088</v>
       </c>
       <c r="H93">
-        <v>0.003924205900924477</v>
+        <v>0.01967156031698459</v>
       </c>
       <c r="I93">
-        <v>0.03450521936100099</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>-0.02487345903345682</v>
+      </c>
+      <c r="J93">
+        <v>-0.03028915586596213</v>
+      </c>
+      <c r="K93">
+        <v>0.001881025229770398</v>
+      </c>
+      <c r="L93">
+        <v>-0.02665757098819458</v>
+      </c>
+      <c r="M93">
+        <v>0.02350085158586057</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13">
       <c r="A94" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B94">
-        <v>-0.08648684260327606</v>
+        <v>-0.1066653346783046</v>
       </c>
       <c r="C94">
-        <v>0.05737887056509151</v>
+        <v>0.07608461305753664</v>
       </c>
       <c r="D94">
-        <v>0.01495954834390144</v>
+        <v>-0.01260853614147145</v>
       </c>
       <c r="E94">
-        <v>-0.008931147081668703</v>
+        <v>-0.01448451667429086</v>
       </c>
       <c r="F94">
-        <v>-0.09585321936951974</v>
+        <v>-0.03110714627264725</v>
       </c>
       <c r="G94">
-        <v>0.1110093623258378</v>
+        <v>-0.1163154931692838</v>
       </c>
       <c r="H94">
-        <v>-0.03024788675068196</v>
+        <v>0.04369407175993161</v>
       </c>
       <c r="I94">
-        <v>-0.1350359972402098</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>0.0501861357491895</v>
+      </c>
+      <c r="J94">
+        <v>0.0006240877414657915</v>
+      </c>
+      <c r="K94">
+        <v>-0.02933379438261143</v>
+      </c>
+      <c r="L94">
+        <v>0.05107487270073001</v>
+      </c>
+      <c r="M94">
+        <v>-0.02903068165187236</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13">
       <c r="A95" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B95">
-        <v>-0.1036431706538464</v>
+        <v>-0.1316271394044678</v>
       </c>
       <c r="C95">
-        <v>0.08181559980980163</v>
+        <v>0.06991674514281147</v>
       </c>
       <c r="D95">
-        <v>0.08837129100902424</v>
+        <v>-0.01895648243316664</v>
       </c>
       <c r="E95">
-        <v>0.01880359704055987</v>
+        <v>-0.06187655037141826</v>
       </c>
       <c r="F95">
-        <v>0.05222119182358951</v>
+        <v>0.07350806613419221</v>
       </c>
       <c r="G95">
-        <v>0.005250556957806707</v>
+        <v>0.1816934482478972</v>
       </c>
       <c r="H95">
-        <v>0.03656663926766646</v>
+        <v>0.07664364390917913</v>
       </c>
       <c r="I95">
-        <v>0.03168533513995064</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>-0.169979769175188</v>
+      </c>
+      <c r="J95">
+        <v>-0.120358375258972</v>
+      </c>
+      <c r="K95">
+        <v>0.01090184000898681</v>
+      </c>
+      <c r="L95">
+        <v>-0.03951455635907983</v>
+      </c>
+      <c r="M95">
+        <v>-0.3193492879067157</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13">
       <c r="A96" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -3490,97 +4642,145 @@
       <c r="I96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:9">
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+      <c r="L96">
+        <v>0</v>
+      </c>
+      <c r="M96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13">
       <c r="A97" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B97">
-        <v>-0.2798985992448768</v>
+        <v>-0.1641352241413178</v>
       </c>
       <c r="C97">
-        <v>0.03865127188924769</v>
+        <v>-0.0003277694755496574</v>
       </c>
       <c r="D97">
-        <v>-0.8719647290681578</v>
+        <v>-0.0925033718946547</v>
       </c>
       <c r="E97">
-        <v>-0.171671465309591</v>
+        <v>0.9349920286069485</v>
       </c>
       <c r="F97">
-        <v>0.0886343641603423</v>
+        <v>0.008675017559865369</v>
       </c>
       <c r="G97">
-        <v>-0.04915794345837886</v>
+        <v>0.117044098707018</v>
       </c>
       <c r="H97">
-        <v>0.04267064360730233</v>
+        <v>0.02131697560514214</v>
       </c>
       <c r="I97">
-        <v>0.02422399390210437</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>-0.006495659883623831</v>
+      </c>
+      <c r="J97">
+        <v>0.00711535020260819</v>
+      </c>
+      <c r="K97">
+        <v>0.06871981445063952</v>
+      </c>
+      <c r="L97">
+        <v>0.01959162534524886</v>
+      </c>
+      <c r="M97">
+        <v>-0.04141613643913707</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13">
       <c r="A98" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B98">
-        <v>-0.2669401541176593</v>
+        <v>-0.2631159467375266</v>
       </c>
       <c r="C98">
-        <v>0.09143034039284985</v>
+        <v>0.1171637737183041</v>
       </c>
       <c r="D98">
-        <v>0.1738620885613424</v>
+        <v>0.01407712900149854</v>
       </c>
       <c r="E98">
-        <v>-0.2865628298777546</v>
+        <v>-0.02845624367526554</v>
       </c>
       <c r="F98">
-        <v>0.4865703951582827</v>
+        <v>-0.419581125728849</v>
       </c>
       <c r="G98">
-        <v>-0.2136794786553183</v>
+        <v>0.2384647104478282</v>
       </c>
       <c r="H98">
-        <v>-0.3173970834074201</v>
+        <v>-0.1593826628359663</v>
       </c>
       <c r="I98">
-        <v>0.002242211608027914</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>0.2417532744403836</v>
+      </c>
+      <c r="J98">
+        <v>0.1613321492704126</v>
+      </c>
+      <c r="K98">
+        <v>-0.1501132944716271</v>
+      </c>
+      <c r="L98">
+        <v>-0.5742049260001606</v>
+      </c>
+      <c r="M98">
+        <v>-0.01805588730139886</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13">
       <c r="A99" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B99">
-        <v>-0.04468072260063188</v>
+        <v>-0.06607925000484141</v>
       </c>
       <c r="C99">
-        <v>0.02029161441259396</v>
+        <v>0.04462520268677431</v>
       </c>
       <c r="D99">
-        <v>0.01695264211775299</v>
+        <v>-0.01448971537155788</v>
       </c>
       <c r="E99">
-        <v>-0.04030139977613852</v>
+        <v>-0.02700591897602527</v>
       </c>
       <c r="F99">
-        <v>-0.03529498608517554</v>
+        <v>-0.01590275160429965</v>
       </c>
       <c r="G99">
-        <v>-0.2855877527839973</v>
+        <v>-0.02328143705979485</v>
       </c>
       <c r="H99">
-        <v>-0.4263992235486357</v>
+        <v>-0.05567025859121363</v>
       </c>
       <c r="I99">
-        <v>-0.6594845415913774</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>0.2373067100646644</v>
+      </c>
+      <c r="J99">
+        <v>-0.08241511346164132</v>
+      </c>
+      <c r="K99">
+        <v>0.09631992299056774</v>
+      </c>
+      <c r="L99">
+        <v>-0.01473010034635015</v>
+      </c>
+      <c r="M99">
+        <v>-0.4495972268201002</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13">
       <c r="A100" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3606,39 +4806,63 @@
       <c r="I100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:9">
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+      <c r="L100">
+        <v>0</v>
+      </c>
+      <c r="M100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13">
       <c r="A101" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B101">
-        <v>-0.04911968264647181</v>
+        <v>-0.04548014886078382</v>
       </c>
       <c r="C101">
-        <v>0.01656531976423829</v>
+        <v>0.02334522428835641</v>
       </c>
       <c r="D101">
-        <v>0.01213595310998062</v>
+        <v>-0.002252368721926325</v>
       </c>
       <c r="E101">
-        <v>0.02140511545792747</v>
+        <v>-0.02047801077196472</v>
       </c>
       <c r="F101">
-        <v>0.003115601829022172</v>
+        <v>0.04552395860545195</v>
       </c>
       <c r="G101">
-        <v>0.01898989899817916</v>
+        <v>-0.03598043253279342</v>
       </c>
       <c r="H101">
-        <v>0.03591104874626849</v>
+        <v>0.05283841939847086</v>
       </c>
       <c r="I101">
-        <v>0.009380945225495074</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>-0.02124327176939101</v>
+      </c>
+      <c r="J101">
+        <v>-0.02589889366646893</v>
+      </c>
+      <c r="K101">
+        <v>-0.03173416749578113</v>
+      </c>
+      <c r="L101">
+        <v>-0.03639365694869016</v>
+      </c>
+      <c r="M101">
+        <v>0.03196322518894053</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13">
       <c r="A102" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -3664,10 +4888,22 @@
       <c r="I102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:9">
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
+      <c r="M102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13">
       <c r="A103" s="1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -3693,10 +4929,22 @@
       <c r="I103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:9">
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+      <c r="M103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13">
       <c r="A104" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3720,6 +4968,18 @@
         <v>0</v>
       </c>
       <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
+        <v>0</v>
+      </c>
+      <c r="M104">
         <v>0</v>
       </c>
     </row>
